--- a/SetDocument/设定文档.xlsx
+++ b/SetDocument/设定文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设定" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="250">
   <si>
     <t>设定</t>
   </si>
@@ -28,22 +28,241 @@
     <t>阐释</t>
   </si>
   <si>
+    <t>玩法简介</t>
+  </si>
+  <si>
+    <t>反馈</t>
+  </si>
+  <si>
     <t>三大主线任务</t>
   </si>
   <si>
     <t>完善自然公园的档案记录、唤醒人民群众的环保意识、打击顽固分子的违法行为</t>
   </si>
   <si>
-    <t>工厂污染</t>
-  </si>
-  <si>
-    <t>这一部分是剧情的主线，玩家需要</t>
-  </si>
-  <si>
-    <t>园区建设</t>
-  </si>
-  <si>
-    <t>群众意识</t>
+    <t>回答npc关于环保问题的咨询</t>
+  </si>
+  <si>
+    <t>群众环保意识上升3</t>
+  </si>
+  <si>
+    <t>城市环保指数t</t>
+  </si>
+  <si>
+    <t>由下面三个数值加权得到，当环保指数达到100时就是圆满结局，t=(x*(200-x)+y*(200-y)+z*(200-z))/(600-x-y-z)</t>
+  </si>
+  <si>
+    <t>在图书馆前的公告板上发布找到书籍的公告</t>
+  </si>
+  <si>
+    <t>群众环保意识上升相应数值</t>
+  </si>
+  <si>
+    <t>污水处理指数x</t>
+  </si>
+  <si>
+    <t>x=x-(100-x)/15（会每天不断减少）这一部分是剧情的主线，城镇中的一些大人物被利益所熏陶，并不在意环境保护，只在乎自己兜里有多少钱，玩家需要通过一定的方式来找到线索，找出是哪些人，再进一步找到证据并举报这些人。（玩家需要自己每天去检测才能获得河流污染指数）</t>
+  </si>
+  <si>
+    <t>在图书馆的公告板上发布最新发现的保护动物/植物的海报</t>
+  </si>
+  <si>
+    <t>园区建设程度y</t>
+  </si>
+  <si>
+    <t>（不会因为时间的变化而变化）这一部分是收集向的任务，玩家需要去寻找遗失的动植物数据以及一些资料来补充自然公园的数据，以便其他工作人员制定相应的方案来保护自然公园的生态环境。园区建设程度会影响园区的收入，进而影响玩家领取的工资与发展资金。</t>
+  </si>
+  <si>
+    <t>群众环保意识z</t>
+  </si>
+  <si>
+    <t>当群众环保意识低于60时，如果玩家不与群众互动，每天会自然降低5，如果互动则只会降低1；当群众环保意识高于60且低于80时，群众环保意识会每天增长1；玩家可以采取一定的措施来提高群众的环境保护意识。当群众意识清零时，游戏将会失败。</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>没有具体的时间，分为白天和晚上，到了晚上玩家必须回到宿舍的床上睡觉来到达第二天</t>
+  </si>
+  <si>
+    <t>金钱m</t>
+  </si>
+  <si>
+    <t>每天会扣除玩家生活所需的必需费用40，同时会发放给玩家基本工资与发展资金（发展资金只能用于购买与建设自然公园相关的物品且当日不用即清零,每天发给玩家与t值相同的基本工资与发展资金），如果连续三天金钱不够，会使玩家因生活压力过大而死亡，每日金钱发放数量与城市环保指数有关.</t>
+  </si>
+  <si>
+    <t>x的变化</t>
+  </si>
+  <si>
+    <t>y的变化</t>
+  </si>
+  <si>
+    <t>z的变化</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>80 1</t>
+  </si>
+  <si>
+    <t>第八天：54</t>
+  </si>
+  <si>
+    <t>第八天：41</t>
+  </si>
+  <si>
+    <t>79 2</t>
+  </si>
+  <si>
+    <t>78 3</t>
+  </si>
+  <si>
+    <t>77 4</t>
+  </si>
+  <si>
+    <t>76 5</t>
+  </si>
+  <si>
+    <t>75 6</t>
+  </si>
+  <si>
+    <t>74 6</t>
+  </si>
+  <si>
+    <t>74 7</t>
+  </si>
+  <si>
+    <t>72 7</t>
+  </si>
+  <si>
+    <t>73 8</t>
+  </si>
+  <si>
+    <t>70 8</t>
+  </si>
+  <si>
+    <t>72 9</t>
+  </si>
+  <si>
+    <t>68 9</t>
+  </si>
+  <si>
+    <t>71 10</t>
+  </si>
+  <si>
+    <t>66 10</t>
+  </si>
+  <si>
+    <t>70 11</t>
+  </si>
+  <si>
+    <t>64 11</t>
+  </si>
+  <si>
+    <t>68 12</t>
+  </si>
+  <si>
+    <t>61 12</t>
+  </si>
+  <si>
+    <t>66 13</t>
+  </si>
+  <si>
+    <t>58 13</t>
+  </si>
+  <si>
+    <t>64 14</t>
+  </si>
+  <si>
+    <t>55 14</t>
+  </si>
+  <si>
+    <t>62 15</t>
+  </si>
+  <si>
+    <t>52 15</t>
+  </si>
+  <si>
+    <t>60 16</t>
+  </si>
+  <si>
+    <t>48 16</t>
+  </si>
+  <si>
+    <t>58 17</t>
+  </si>
+  <si>
+    <t>44 17</t>
+  </si>
+  <si>
+    <t>56 18</t>
+  </si>
+  <si>
+    <t>40 18</t>
+  </si>
+  <si>
+    <t>54 19</t>
+  </si>
+  <si>
+    <t>35 19</t>
+  </si>
+  <si>
+    <t>51 20</t>
+  </si>
+  <si>
+    <t>30 20</t>
+  </si>
+  <si>
+    <t>48 21</t>
+  </si>
+  <si>
+    <t>25 21</t>
+  </si>
+  <si>
+    <t>45 22</t>
+  </si>
+  <si>
+    <t>19 22</t>
+  </si>
+  <si>
+    <t>42 23</t>
+  </si>
+  <si>
+    <t>13 23</t>
+  </si>
+  <si>
+    <t>39 24</t>
+  </si>
+  <si>
+    <t>6 24</t>
+  </si>
+  <si>
+    <t>35 25</t>
+  </si>
+  <si>
+    <t>0 25</t>
+  </si>
+  <si>
+    <t>31 26</t>
+  </si>
+  <si>
+    <t>27 27</t>
+  </si>
+  <si>
+    <t>23 28</t>
+  </si>
+  <si>
+    <t>18 29</t>
+  </si>
+  <si>
+    <t>13 30</t>
+  </si>
+  <si>
+    <t>8 31</t>
+  </si>
+  <si>
+    <t>2 32</t>
   </si>
   <si>
     <r>
@@ -75,6 +294,9 @@
     <t>简介</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>主角</t>
   </si>
   <si>
@@ -90,6 +312,9 @@
     <t>老年妇女形象，朴素一点比较好</t>
   </si>
   <si>
+    <t>随机出现，一周至少出现三次，不在图书馆就在园区里</t>
+  </si>
+  <si>
     <t>吴文忠</t>
   </si>
   <si>
@@ -99,6 +324,9 @@
     <t>中年成功人士形象，身上有一些富贵的装饰，鞋子一定要非常干净</t>
   </si>
   <si>
+    <t>周一周四可以在园区看见</t>
+  </si>
+  <si>
     <t>刘三强</t>
   </si>
   <si>
@@ -108,6 +336,9 @@
     <t>胖一点的恶霸形象，带个皮夹金项链的那种</t>
   </si>
   <si>
+    <t>每天晚上都可以在酒吧听到他的信息，只有周三白天可以在办公室里找到他</t>
+  </si>
+  <si>
     <t>李建国</t>
   </si>
   <si>
@@ -117,6 +348,9 @@
     <t>中年成功人士形象，身上有一些富贵的装饰，脸上留点奸诈的小胡子</t>
   </si>
   <si>
+    <t>周二周五可以在局长办公室看见</t>
+  </si>
+  <si>
     <t>阿正</t>
   </si>
   <si>
@@ -124,6 +358,9 @@
   </si>
   <si>
     <t>便衣警察，最好有个帽子</t>
+  </si>
+  <si>
+    <t>回答对五次群众的提问后，便衣警察会向你搭话</t>
   </si>
   <si>
     <r>
@@ -152,22 +389,34 @@
     </r>
   </si>
   <si>
+    <t>来源</t>
+  </si>
+  <si>
     <t>园长卡</t>
   </si>
   <si>
     <t>一张普通的卡，卡套上面画着绿水蓝天</t>
   </si>
   <si>
+    <t>园区建设值达到70与园长对话可以获得</t>
+  </si>
+  <si>
     <t>录音笔</t>
   </si>
   <si>
     <t>一直普通的黑色录音笔，可以更换存储卡看上去平平无奇但是录音效果非常好</t>
   </si>
   <si>
+    <t>从便衣警察处获得</t>
+  </si>
+  <si>
     <t>证据</t>
   </si>
   <si>
     <t>普通的黑色SD卡，可以轻松从录音笔中放入取出那种（会有至少两张证据，都用一个图片就好了）</t>
+  </si>
+  <si>
+    <t>将录音笔交给酒吧前台获取工厂老板、园区领导与环保局局长交易的证据</t>
   </si>
   <si>
     <r>
@@ -196,11 +445,14 @@
     </r>
   </si>
   <si>
-    <t>“上”城区街道</t>
+    <t>一些额外信息</t>
+  </si>
+  <si>
+    <t>城区街道</t>
   </si>
   <si>
     <r>
-      <t>有富贵气息的街道，</t>
+      <t>保留上城区与下城区的设定，但是将两个街道连通，上城区需要有一个进入</t>
     </r>
     <r>
       <rPr>
@@ -209,7 +461,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>一个酒吧</t>
+      <t>酒吧的门</t>
     </r>
     <r>
       <rPr>
@@ -218,15 +470,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>，几栋华丽的房子</t>
-    </r>
-  </si>
-  <si>
-    <t>酒吧</t>
-  </si>
-  <si>
-    <r>
-      <t>灯光绚丽的酒吧，一个前台</t>
+      <t>，下城区需要有一个</t>
     </r>
     <r>
       <rPr>
@@ -235,7 +479,8 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>酒保</t>
+      <t xml:space="preserve">小书店（类似于邮局报停那种），还有一个玩家宿舍楼的大门与自然图书馆的大门
+</t>
     </r>
     <r>
       <rPr>
@@ -244,21 +489,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>，一个大厅，一个包间（可以进去）</t>
-    </r>
-  </si>
-  <si>
-    <t>环保局局长办公室</t>
-  </si>
-  <si>
-    <t>装修华丽的办公室，一张办公桌，一个柜子，放有很多昂贵的物品</t>
-  </si>
-  <si>
-    <t>“下”城区街道</t>
-  </si>
-  <si>
-    <r>
-      <t>十分简朴的街道，富有生活气息，</t>
+      <t>中间是环保局，下城区简朴一点，上城区华丽一点，环保局要有前后两个</t>
     </r>
     <r>
       <rPr>
@@ -267,7 +498,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>一个街边小店</t>
+      <t>门</t>
     </r>
     <r>
       <rPr>
@@ -276,15 +507,55 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>，一个卖菜的小摊贩和几栋简朴的房子</t>
+      <t xml:space="preserve">
+自然图书馆需要一个大一点的</t>
     </r>
-  </si>
-  <si>
-    <t>环保局大厅</t>
-  </si>
-  <si>
     <r>
-      <t>普通的办公大厅，一个前台</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公告板</t>
+    </r>
+  </si>
+  <si>
+    <t>三个室外场景
+五个室内场景
+室外场景全部采用2.5D不建模
+室内场景全部采用Toem式需要建模</t>
+  </si>
+  <si>
+    <t>自然公园</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>工厂</t>
+  </si>
+  <si>
+    <t>表面整洁的工厂，但是能看见污水不断地从工厂里排入河流中，需要一个进入工厂老板办公室的门</t>
+  </si>
+  <si>
+    <t>宿舍</t>
+  </si>
+  <si>
+    <t>一个简单的宿舍，一张床，一套桌椅，一个柜子以及一张考勤表</t>
+  </si>
+  <si>
+    <t>自然图书馆</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要有一个前台</t>
     </r>
     <r>
       <rPr>
@@ -295,34 +566,39 @@
       </rPr>
       <t>工作人员</t>
     </r>
-  </si>
-  <si>
-    <t>工厂内</t>
-  </si>
-  <si>
-    <t>脏乱的工厂，还能看见污水不断地从工厂里排入河流中</t>
-  </si>
-  <si>
-    <t>工厂老板办公室</t>
-  </si>
-  <si>
-    <t>富丽堂皇的办公室，一张办公桌，一个柜子，放着昂贵的酒水以及物品</t>
-  </si>
-  <si>
-    <t>主角宿舍</t>
-  </si>
-  <si>
     <r>
-      <t>一个简单的宿舍，</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，一些书架（其中一两个可以交互）</t>
+    </r>
+  </si>
+  <si>
+    <t>环保局内</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>包括大厅与局长办公室，大厅需要一个</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFDE3C36"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>一张床</t>
+      <t>前台</t>
     </r>
     <r>
       <rPr>
@@ -330,86 +606,25 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>，一套桌椅，一个柜子以及</t>
+      <t>，局长办公室华丽一点</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDE3C36"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一张考勤表</t>
-    </r>
-  </si>
-  <si>
-    <t>宿舍过道</t>
-  </si>
-  <si>
-    <r>
-      <t>一个前台，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDE3C36"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一个前台小妹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，左边需要一个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDE3C36"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>比较华丽但布满灰尘的门（园区领导宿舍）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，右边有几个门，其中一个是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDE3C36"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主角宿舍门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，其他的都是不可以交互的</t>
-    </r>
-  </si>
-  <si>
-    <t>河边（先不做）</t>
-  </si>
-  <si>
-    <t>一条河，一些树木，灌木</t>
+  </si>
+  <si>
+    <t>酒吧</t>
+  </si>
+  <si>
+    <t>只需要做一个大厅，大厅包括基本设施、前台，以及一个包间的门（这个门不需要进入）</t>
+  </si>
+  <si>
+    <t>每次进入酒吧需要花掉一定的钱</t>
+  </si>
+  <si>
+    <t>工厂老板办公室</t>
+  </si>
+  <si>
+    <t>富丽堂皇的办公室</t>
   </si>
   <si>
     <r>
@@ -425,28 +640,25 @@
     </r>
   </si>
   <si>
-    <t>地图</t>
-  </si>
-  <si>
-    <t>点开之后可以打开地图，点击地图上面的地点可以传送</t>
+    <t>导航</t>
+  </si>
+  <si>
+    <t>点开之后可以打开导航，点击导航上面的地点可以传送</t>
+  </si>
+  <si>
+    <t>需要在手机主页上显示金余额</t>
   </si>
   <si>
     <t>通讯录</t>
   </si>
   <si>
-    <t>可以查看主角认识的重要人物以及与他们的关系</t>
+    <t>可以查看主角认识的重要人物</t>
   </si>
   <si>
     <t>日志</t>
   </si>
   <si>
-    <t>记录每天的污染值以及园区的动植物情况</t>
-  </si>
-  <si>
-    <t>钱包</t>
-  </si>
-  <si>
-    <t>显示主角的货币余额以及今日预计扣除</t>
+    <t>记录各种指数的每天变化以及今日预计扣除</t>
   </si>
   <si>
     <t>设置</t>
@@ -474,6 +686,12 @@
   </si>
   <si>
     <t>词条简介</t>
+  </si>
+  <si>
+    <t>园区建设程度</t>
+  </si>
+  <si>
+    <t>群众环保意识</t>
   </si>
   <si>
     <t>书籍</t>
@@ -485,6 +703,15 @@
     <t>《中国濒危动物红皮书》是在世界自然保护联盟编写的；详细、全面地论述了中国濒危动物的濒危状况、致危因素、保护措施等，旨在使政府部门、科学界和公众较为清楚地了解中国的动物物种现状，提高政府官员及公众对中国濒危物种的保护意识，并针对现状制定和实施相应的保护措施。为中国物种的保护和持续利用提供科学依据。
 其采用的物种濒危等级分为：野生绝迹、绝迹、濒危、渐危、稀有、易危等。全书共分4卷：鸟类、鱼类、两栖类、爬行类及兽类。
 此外，中国濒危动物红皮书数据库收集了中国592个濒危动物物种的详细描述，包括了濒危的鱼类、两栖纲、爬行纲、鸟纲和哺乳纲的动物。</t>
+  </si>
+  <si>
+    <t>初次与环保局局长对话获得</t>
+  </si>
+  <si>
+    <t>需要收集</t>
+  </si>
+  <si>
+    <t>共40建设值</t>
   </si>
   <si>
     <t>《第六次生物大灭绝已灭绝动物名单》</t>
@@ -700,7 +927,10 @@
 Fregilupus Varius留尼汪椋鸟1862年</t>
   </si>
   <si>
-    <t>《国家保护动物汇总》</t>
+    <t>拜托书店老板5天后可以购买</t>
+  </si>
+  <si>
+    <t>《国家重点保护动物名录》</t>
   </si>
   <si>
     <t xml:space="preserve">国家重点保护野生动物名录
@@ -4244,7 +4474,13 @@
 </t>
   </si>
   <si>
-    <t>《中国濒危植物汇总》</t>
+    <t>群众环保意识达到60后可以拜托环保局工作人员找到</t>
+  </si>
+  <si>
+    <t>《国家重点保护植物名录》</t>
+  </si>
+  <si>
+    <t>群众环保意识达到70后环保局工作人员会送给图书馆前台</t>
   </si>
   <si>
     <t>《生物多样性保护史简记》</t>
@@ -4262,6 +4498,9 @@
 2021年10月8日，中华人民共和国国务院新闻办公室发表《中国的生物多样性保护》白皮书。
 2021年10月12日下午，中国国家主席习近平以视频方式出席在昆明举行的《生物多样性公约》第十五次缔约方大会领导人峰会并发表主旨讲话。习近平指出，生物多样性使地球充满生机，也是人类生存和发展的基础。保护生物多样性有助于维护地球家园，促进人类可持续发展。
 2022年12月7日，《生物多样性公约》第十五次缔约方大会（COP15）第二阶段会议在加拿大蒙特利尔开幕。中国作为COP15主席国，将尽最大努力推动和协调各方达成最大共识，在第二阶段会议上通过“2020年后全球生物多样性框架”。</t>
+  </si>
+  <si>
+    <t>拜托书店老板10天后可以购买</t>
   </si>
   <si>
     <t>《环境保护》2019年17期</t>
@@ -4374,6 +4613,9 @@
 </t>
   </si>
   <si>
+    <t>小书店购买</t>
+  </si>
+  <si>
     <t>《世界科学》2019年7月</t>
   </si>
   <si>
@@ -4482,22 +4724,37 @@
     <t>《巴黎协定》</t>
   </si>
   <si>
-    <t>《巴黎协定》（The Paris Agreement），是由全世界178个缔约方共同签署的气候变化协定，是对2020年后全球应对气候变化的行动作出的统一安排。《巴黎协定》的长期目标是将全球平均气温较前工业化时期上升幅度控制在2摄氏度以内，并努力将温度上升幅度限制在1.5摄氏度以内。
+    <t>《巴黎协定》（The Paris Agreement），由全世界178个缔约方共同签署的气候变化协定，是对2020年后全球应对气候变化的行动作出的统一安排。《巴黎协定》的长期目标是将全球平均气温较前工业化时期上升幅度控制在2摄氏度以内，并努力将温度上升幅度限制在1.5摄氏度以内。
 《巴黎协定》于2015年12月12日在第21届联合国气候变化大会（巴黎气候大会）上通过，于2016年4月22日在美国纽约联合国大厦签署，于2016年11月4日起正式实施。《巴黎协定》是已经到期的《京都议定书》的后续。
 2016年4月22日，时任中国国务院副总理张高丽作为习近平主席特使在《巴黎协定》上签字。
 同年9月3日，全国人大常委会批准中国加入《巴黎气候变化协定》，成为完成了批准协定的缔约方之一。
 2021年11月13日，联合国气候变化大会（COP26）在英国格拉斯哥闭幕。经过两周的谈判，各缔约方最终完成了《巴黎协定》实施细则。</t>
   </si>
   <si>
+    <t>连续十天全部回答正确群众的提问，会遇见一名教师，获得</t>
+  </si>
+  <si>
     <t>《寂静的春天》</t>
   </si>
   <si>
-    <t>《寂静的春天》是美国科普作家蕾切尔·卡逊创作的科普读物，首次出版于1962年。
+    <t>美国科普作家蕾切尔·卡逊创作的科普读物，首次出版于1962年。
 在这本书中，卡逊以生动而严肃的笔触，描写因过度使用化学药品和肥料而导致环境污染、生态破坏，最终给人类带来不堪重负的灾难，阐述了农药对环境的污染，用生态学的原理分析了这些化学杀虫剂对人类赖以生存的生态系统带来的危害，指出人类用自己制造的毒药来提高农业产量，无异于饮鸩止渴，人类应该走“另外的路”。
 该书将近代污染对生态的影响透彻地展示在读者面前，给予人类强有力的警示。作者在书中对农业科学家的科学实践活动和政府的政策提出挑战，并号召人们迅速改变对自然世界的看法和观点，呼吁人们认真思考人类社会的发展问题。另外，她记录了工业文明所带来的诸多负面影响，直接推动了日后现代环保主义的发展。 
 2020年4月，列入《教育部基础教育课程教材发展中心 中小学生阅读指导目录（2020年版）》。</t>
   </si>
   <si>
+    <t>与雷切尔对话三次获得</t>
+  </si>
+  <si>
+    <t>《曲之求索：中国环境保护方略》</t>
+  </si>
+  <si>
+    <t>一本崭新《的曲之求索：中国环境保护方略》，这本书汇集了曲格平先生多年来思想和理论之精华．对我国环境保护多项大政方针和政策思路制定进行了历史再现．回顾并思考了新中国环境保护事业波澜壮阔的发展历程。是社会各界关心环保事业人士必读之作。</t>
+  </si>
+  <si>
+    <t>初次与园区领导对话获得</t>
+  </si>
+  <si>
     <t>科普</t>
   </si>
   <si>
@@ -4505,6 +4762,12 @@
   </si>
   <si>
     <t>两级法与等级法</t>
+  </si>
+  <si>
+    <t>不需要收集</t>
+  </si>
+  <si>
+    <t>共20建设值</t>
   </si>
   <si>
     <t>两级法</t>
@@ -4580,10 +4843,130 @@
 生物多样性使地球充满生机，也是人类生存和发展的基础，可通过就地保护和迁地保护等方式加以保护。</t>
   </si>
   <si>
+    <t>垃圾分类</t>
+  </si>
+  <si>
+    <t>可回收垃圾。如：废纸皮、塑料瓶、玻璃瓶、金属材料以及旧衣服等。
+厨余垃圾。如：剩菜剩叶、骨头、剩饭以及各种果皮等。
+有害垃圾。如：电池、灯泡、水银温度计等。
+其他垃圾。如：废弃的瓦砾和陶瓷、尘土、不能回收的卫生纸等。</t>
+  </si>
+  <si>
     <t>动物</t>
   </si>
   <si>
     <t>植物</t>
+  </si>
+  <si>
+    <t>序幕</t>
+  </si>
+  <si>
+    <t>第一幕（第一天就会解锁的内容）</t>
+  </si>
+  <si>
+    <t>第二幕</t>
+  </si>
+  <si>
+    <t>第三幕</t>
+  </si>
+  <si>
+    <t>第四幕</t>
+  </si>
+  <si>
+    <t>终幕（寻找证据）</t>
+  </si>
+  <si>
+    <t>玩家初始在宿舍</t>
+  </si>
+  <si>
+    <t>玩家离开图书馆来到街上，会遇见一个孩子，问他一些关于环保的问题，玩家回答正确之后，群众环保意识会上升，同时玩家每天可以在街道上为群众解答关于环境保护的问题，正确解答的数量越多，就会有更多人来咨询玩家。（如果回答错误，群众环保意识会下降，且回答错误的次数越多，减少的值也越高）</t>
+  </si>
+  <si>
+    <t>游戏第三天图书馆前台会告诉你两本缺失的书籍名称《第六次生物大灭绝已灭绝动物名单》与《生物多样性保护史简记》</t>
+  </si>
+  <si>
+    <t>游戏第八天，图书馆前台会告诉玩家想办法解决河流污染日益严重的问题</t>
+  </si>
+  <si>
+    <t>群众环保意识达到70可以从群众那里获得消息</t>
+  </si>
+  <si>
+    <t>反应的一天后便衣警察证实你的猜想，给你一支录音笔让你寻找证据，他去申请搜查令</t>
+  </si>
+  <si>
+    <t>给玩家介绍手机、背包、床铺、基本玩法以及设定</t>
+  </si>
+  <si>
+    <t>小书店开放，玩家可以在这里向书店老板购买书籍或者让他帮忙寻找书籍</t>
+  </si>
+  <si>
+    <t>玩家可以向环保局举报或者去跟工厂老板反应，但是会被环保局局长敷衍过去或被工厂老板轰出去</t>
+  </si>
+  <si>
+    <t>1.可以在下城区街道旁认识便衣警察，可以向他寻求帮助</t>
+  </si>
+  <si>
+    <t>群众环保意识达到85或污水处理指数降至40可以让酒保帮你安排人在他们交易时录音保存证据</t>
+  </si>
+  <si>
+    <t>引导玩家在手机备忘录里看到自己的基本信息</t>
+  </si>
+  <si>
+    <t>图书馆前的公告板，可以询问图书馆前台来得知它的用途，玩家也可以自己去查看</t>
+  </si>
+  <si>
+    <t>询问工厂中的工人可以知道只有每周三能在工厂看见工厂老板以及老板每天晚上都会去酒吧</t>
+  </si>
+  <si>
+    <t>2.可以向书店老板打听，知道园区领导和环保局局长有时会在这里一起看报纸</t>
+  </si>
+  <si>
+    <t>如果7天后还是没有找到任何证据，那么主犯三人会逃跑，找到证据即可抓住相应的人</t>
+  </si>
+  <si>
+    <t>引导玩家前往自然图书室寻找前台对话</t>
+  </si>
+  <si>
+    <t>可以向环保局工作人员咨询提升群众环保意识的方法以及可以见到局长的时间</t>
+  </si>
+  <si>
+    <t>询问环保局局长可以获得书籍《中国濒危动物红皮书》</t>
+  </si>
+  <si>
+    <t>玩家可以去酒吧向酒保打听，但是因为老板只在包间中待着，玩家不能进去且酒保不会透露过多信息</t>
+  </si>
+  <si>
+    <t>3.询问工厂中的工人可以知道园区领导曾经来找过工厂老板，最后油光满面的走了</t>
+  </si>
+  <si>
+    <t>前台告诉玩家两个基础的任务(完善自然公园的档案记录与提升人民群众的环保意识）</t>
+  </si>
+  <si>
+    <t>可以向图书馆前台人员咨询容易见到领导的时间</t>
+  </si>
+  <si>
+    <t>询问园区领导，园区领导会给你一本书，园区领导会让你去找环保局局长</t>
+  </si>
+  <si>
+    <t>玩家可以向园区领导寻求帮助，园区领导表示会去调查，但是不会有结果</t>
+  </si>
+  <si>
+    <t>4.可以在酒保处打听到工厂老板周五和周天晚上会分别和一个衣着正式的人来这里</t>
+  </si>
+  <si>
+    <t>初始值（x=80,y=20,z=30,m=200)</t>
+  </si>
+  <si>
+    <t>玩家可以自己去检测河流解锁污水处理指数</t>
+  </si>
+  <si>
+    <t>向便衣警察反应自己的猜测（至少找齐2和34中的一个才能反应）</t>
+  </si>
+  <si>
+    <t>所有剧情在持续完善中</t>
+  </si>
+  <si>
+    <t>黄色部分为玩家可选择完成内容</t>
   </si>
 </sst>
 </file>
@@ -4600,6 +4983,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4781,19 +5171,19 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFDE3C36"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4982,7 +5372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -5052,6 +5442,43 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5176,10 +5603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5188,36 +5615,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -5227,109 +5651,235 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5337,67 +5887,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5459,6 +5952,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="地图"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45720" y="2862580"/>
+          <a:ext cx="6811645" cy="6718300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5748,180 +6284,601 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="5" width="15.7777777777778" style="22" customWidth="1"/>
+    <col min="1" max="5" width="15.7777777777778" style="4" customWidth="1"/>
+    <col min="7" max="12" width="15.7777777777778" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A1" s="22" t="s">
+    <row r="1" ht="20" customHeight="1" spans="1:12">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:5">
-      <c r="A2" s="22" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="2:5">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="1:5">
-      <c r="A4" s="22" t="s">
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:5">
-      <c r="A5" s="22" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="1:5">
-      <c r="A6" s="22" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="2:5">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="2:5">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="2:5">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="2:5">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="2:5">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="2:5">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="2:5">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="2:5">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="2:5">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="2:5">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="2:5">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="2:5">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="2:5">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="2:5">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="48"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="48"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="2:11">
+      <c r="B9" s="44"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="18"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="48"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="2:11">
+      <c r="B10" s="44"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="18"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="2:11">
+      <c r="B11" s="44"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="18"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="2:11">
+      <c r="B12" s="44"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="2:11">
+      <c r="B13" s="44"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="18"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="48"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="2:11">
+      <c r="B14" s="44"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="18"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="48"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="2:11">
+      <c r="B15" s="44"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="18"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="48"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="2:11">
+      <c r="B16" s="44"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="18"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:11">
+      <c r="B17" s="44"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="18"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="48"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="2:11">
+      <c r="B18" s="44"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="18"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="48"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="2:11">
+      <c r="B19" s="44"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="18"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="48"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:11">
+      <c r="B20" s="44"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="18"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="48"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4">
+        <v>54</v>
+      </c>
+      <c r="C29" s="4">
+        <v>41</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="40">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:K1"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:K2"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:K3"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:K4"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:K5"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:K6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:K7"/>
     <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:K9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:K12"/>
     <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:K14"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:K15"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:K16"/>
     <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:K17"/>
     <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:K18"/>
     <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G19:K19"/>
     <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:K20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5931,122 +6888,169 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="6" width="15.7777777777778" customWidth="1"/>
+    <col min="1" max="10" width="15.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:6">
-      <c r="A1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:6">
-      <c r="A2" s="21"/>
-      <c r="B2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:6">
-      <c r="A3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="1:6">
-      <c r="A4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:6">
-      <c r="A5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="1:6">
-      <c r="A6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="1:6">
-      <c r="A7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+    <row r="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A1" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:10">
+      <c r="A2" s="43"/>
+      <c r="B2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:10">
+      <c r="A3" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:10">
+      <c r="A4" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:10">
+      <c r="A5" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:10">
+      <c r="A6" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:10">
+      <c r="A7" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
     <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
     <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6057,60 +7061,73 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="15.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="15.7777777777778" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:5">
-      <c r="A2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:5">
-      <c r="A3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="1:5">
-      <c r="A4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+    <row r="1" ht="20" customHeight="1" spans="1:6">
+      <c r="A1" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:6">
+      <c r="A2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:6">
+      <c r="A4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6127,271 +7144,353 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G9" sqref="G9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
-    <col min="2" max="6" width="15.7777777777778" customWidth="1"/>
+    <col min="2" max="10" width="15.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="15.7777777777778" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:6">
-      <c r="A1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:6">
-      <c r="A3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="1:6">
-      <c r="A4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:6">
-      <c r="A5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="1:6">
-      <c r="A6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="1:6">
-      <c r="A7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:6">
-      <c r="A8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="1:6">
-      <c r="A9" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="1:6">
-      <c r="A10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="1:6">
-      <c r="A11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+    <row r="1" ht="20" customHeight="1" spans="1:12">
+      <c r="A1" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="38"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:12">
+      <c r="A2" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="38"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:12">
+      <c r="A3" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="38"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:12">
+      <c r="A4" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="38"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:12">
+      <c r="A5" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="38"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:12">
+      <c r="A6" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="38"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:12">
+      <c r="A7" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="38"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:12">
+      <c r="A8" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="38"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:12">
+      <c r="A9" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:12">
+      <c r="A10" s="27"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:12">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="23">
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:J2"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:J5"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:J6"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:J10"/>
     <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K2:K11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="15.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="15.7777777777778" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:5">
-      <c r="A2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:5">
-      <c r="A3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="1:5">
-      <c r="A4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:5">
-      <c r="A5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="1:5">
-      <c r="A6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="1:5">
-      <c r="A7" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
+    <row r="1" ht="20" customHeight="1" spans="1:6">
+      <c r="A1" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:6">
+      <c r="A2" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:6">
+      <c r="A4" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:6">
+      <c r="A5" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:6">
+      <c r="A6" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:6">
+      <c r="A7" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B1:E1"/>
@@ -6401,7 +7500,7 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F2:F7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6411,366 +7510,518 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="6" width="15.7777777777778" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.7777777777778" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="6" width="15.7777777777778" style="5" customWidth="1"/>
+    <col min="7" max="9" width="15.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>76</v>
+    <row r="1" ht="20" customHeight="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="2:6">
+        <v>160</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="2:6">
-      <c r="B4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="2:6">
-      <c r="B5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="2:6">
-      <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="2:6">
+        <v>165</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="2:9">
+      <c r="B4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="2:9">
+      <c r="B5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="2:9">
+      <c r="B6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="2:9">
       <c r="B7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="2:6">
+        <v>176</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="2:9">
       <c r="B8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="2:6">
-      <c r="B9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="2:6">
+        <v>179</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="2:9">
+      <c r="B9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="2:9">
       <c r="B10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="2:11">
       <c r="B11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="2:6">
-      <c r="B12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="2:6">
-      <c r="B13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+        <v>187</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:11">
+      <c r="A12" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="J12" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:6">
-      <c r="B14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:6">
-      <c r="B15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:6">
-      <c r="B16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:6">
-      <c r="B17" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:6">
-      <c r="B18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="3:6">
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="3:6">
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="3:6">
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" ht="20" customHeight="1" spans="3:6">
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="B18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="3:6">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" ht="20" customHeight="1" spans="1:11">
+      <c r="A22" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="J22" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="3:6">
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="3:6">
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="3:6">
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="3:6">
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="3:6">
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="3:6">
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="3:6">
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" ht="20" customHeight="1" spans="3:6">
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" ht="20" customHeight="1" spans="3:6">
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" ht="20" customHeight="1" spans="3:6">
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" ht="20" customHeight="1" spans="1:11">
+      <c r="A32" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="J32" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" ht="20" customHeight="1" spans="1:6">
+      <c r="A33" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="3:6">
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" ht="20" customHeight="1" spans="3:6">
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" ht="20" customHeight="1" spans="3:6">
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="3:6">
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="3:6">
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" ht="20" customHeight="1" spans="3:6">
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" ht="20" customHeight="1" spans="3:6">
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="3:6">
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="46">
     <mergeCell ref="C1:F1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="C2:F2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
@@ -6781,6 +8032,7 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
@@ -6791,6 +8043,7 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
@@ -6801,6 +8054,7 @@
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
@@ -6809,6 +8063,7 @@
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6819,14 +8074,168 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="13" width="15.7777777777778" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1"/>
+    <row r="9" ht="20" customHeight="1"/>
+    <row r="10" ht="20" customHeight="1"/>
+    <row r="11" ht="20" customHeight="1"/>
+    <row r="12" ht="20" customHeight="1"/>
+    <row r="13" ht="20" customHeight="1" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1"/>
+    <row r="16" ht="20" customHeight="1"/>
+    <row r="17" ht="20" customHeight="1"/>
+    <row r="18" ht="20" customHeight="1"/>
+    <row r="19" ht="20" customHeight="1"/>
+    <row r="20" ht="20" customHeight="1"/>
+    <row r="21" ht="20" customHeight="1"/>
+    <row r="22" ht="20" customHeight="1"/>
+    <row r="23" ht="20" customHeight="1"/>
+    <row r="24" ht="20" customHeight="1"/>
+    <row r="25" ht="20" customHeight="1"/>
+    <row r="26" ht="20" customHeight="1"/>
+    <row r="27" ht="20" customHeight="1"/>
+    <row r="28" ht="20" customHeight="1"/>
+    <row r="29" ht="20" customHeight="1"/>
+    <row r="30" ht="20" customHeight="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/SetDocument/设定文档.xlsx
+++ b/SetDocument/设定文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设定" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="283">
   <si>
     <t>设定</t>
   </si>
@@ -73,6 +73,9 @@
     <t>（不会因为时间的变化而变化）这一部分是收集向的任务，玩家需要去寻找遗失的动植物数据以及一些资料来补充自然公园的数据，以便其他工作人员制定相应的方案来保护自然公园的生态环境。园区建设程度会影响园区的收入，进而影响玩家领取的工资与发展资金。</t>
   </si>
   <si>
+    <t>完成相应任务</t>
+  </si>
+  <si>
     <t>群众环保意识z</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>金钱m</t>
   </si>
   <si>
-    <t>每天会扣除玩家生活所需的必需费用40，同时会发放给玩家基本工资与发展资金（发展资金只能用于购买与建设自然公园相关的物品且当日不用即清零,每天发给玩家与t值相同的基本工资与发展资金），如果连续三天金钱不够，会使玩家因生活压力过大而死亡，每日金钱发放数量与城市环保指数有关.</t>
+    <t>每天会扣除玩家生活所需的必需费用40，同时会发放给玩家基本工资与发展资金（发展资金只能用于购买与建设自然公园相关的物品且当日不用即清零,每天发给玩家与t值相同的基本工资与发展资金），如果连续三天金钱不够，会使玩家因生活压力过大而死亡，每日金钱发放数量与城市环保指数有关。</t>
   </si>
   <si>
     <t>x的变化</t>
@@ -452,6 +455,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>保留上城区与下城区的设定，但是将两个街道连通，上城区需要有一个进入</t>
     </r>
     <r>
@@ -618,7 +627,7 @@
     <t>只需要做一个大厅，大厅包括基本设施、前台，以及一个包间的门（这个门不需要进入）</t>
   </si>
   <si>
-    <t>每次进入酒吧需要花掉一定的钱</t>
+    <t>只有晚上可以进入，每次进入酒吧需要花掉一定的钱</t>
   </si>
   <si>
     <t>工厂老板办公室</t>
@@ -646,7 +655,7 @@
     <t>点开之后可以打开导航，点击导航上面的地点可以传送</t>
   </si>
   <si>
-    <t>需要在手机主页上显示金余额</t>
+    <t>需要在手机主页上显示金钱余额</t>
   </si>
   <si>
     <t>通讯录</t>
@@ -692,6 +701,9 @@
   </si>
   <si>
     <t>群众环保意识</t>
+  </si>
+  <si>
+    <t>相关网址</t>
   </si>
   <si>
     <t>书籍</t>
@@ -933,7 +945,7 @@
     <t>《国家重点保护动物名录》</t>
   </si>
   <si>
-    <t xml:space="preserve">国家重点保护野生动物名录
+    <t>国家重点保护野生动物名录
 中文名     学名     保护级别     备注
 脊索动物门 CHORDATA
 哺乳纲 MAMMALIA
@@ -3302,1182 +3314,2295 @@
 *金佛拟小鲵
 Pseudohynobius jinfo
 二级
-*宽阔水拟小鲵
-Pseudohynobius kuankuoshuiensis
-二级
-*水城拟小鲵
-Pseudohynobius shuichengensis
-二级
-*弱唇褶山溪鲵
-Batrachuperus cochranae
-二级
-*无斑山溪鲵
-Batrachuperus karlschmidti
-二级
-*龙洞山溪鲵
-Batrachuperus londongensis
-二级
-*山溪鲵
-Batrachuperus pinchonii
-二级
-*西藏山溪鲵
-Batrachuperus tibetanus
-二级
-*盐源山溪鲵
-Batrachuperus yenyuanensis
-二级
-*阿里山小鲵
-Hynobius arisanensis
-二级
-*台湾小鲵
-Hynobius formosanus
-二级
-*观雾小鲵
-Hynobius fuca
-二级
-*南湖小鲵
-Hynobius glacialis
-二级
-*东北小鲵
-Hynobius leechii
-二级
-*楚南小鲵
-Hynobius sonani
-二级
-*义乌小鲵
-Hynobius yiwuensis
-二级
-隐鳃鲵科
-Cryptobranchidae
-*大鲵
-Andrias davidianus
-二级
-仅限野外种群
-蝾螈科
-Salamandridae [17]
-*潮汕蝾螈
-Cynops orphicus
-二级
-*大凉螈
-Liangshantriton taliangensis
-二级
-原名“大凉疣螈”
-*贵州疣螈
-Tylototriton kweichowensis
-二级
-*川南疣螈
-Tylototriton pseudoverrucosus
-二级
-*丽色疣螈
-Tylototriton pulcherrima
-二级
-*红瘰疣螈
-Tylototriton shanjing
-二级
-*棕黑疣螈
-Tylototriton verrucosus
-二级
-原名“细瘰疣螈”
-*滇南疣螈
-Tylototriton yangi
-二级
-*安徽瑶螈
-Yaotriton anhuiensis
-二级
-*细痣瑶螈
-Yaotriton asperrimus
-二级
-原名“细痣疣螈”
-*宽脊瑶螈
-Yaotriton broadoridgus
-二级
-*大别瑶螈
-Yaotriton dabienicus
-二级
-*海南瑶螈
-Yaotriton hainanensis
-二级
-*浏阳瑶螈
-Yaotriton liuyangensis
-二级
-*莽山瑶螈
-Yaotriton lizhenchangi
-二级
-*文县瑶螈
-Yaotriton wenxianensis
-二级
-*蔡氏瑶螈
-Yaotriton ziegleri
-二级
-*镇海棘螈
-Echinotriton chinhaiensis
-一级
-原名“镇海疣螈”
-*琉球棘螈
-Echinotriton andersoni
-二级
-*高山棘螈
-Echinotriton maxiquadratus
-二级
-*橙脊瘰螈
-Paramesotriton aurantius
-二级
-*尾斑瘰螈
-Paramesotriton caudopunctatus
-二级
-*中国瘰螈
-Paramesotriton chinensis
-二级
-*越南瘰螈
-Paramesotriton deloustali
-二级
-*富钟瘰螈
-Paramesotriton fuzhongensis
-二级
-*广西瘰螈
-Paramesotriton guangxiensis
-二级
-*香港瘰螈
-Paramesotriton hongkongensis
-二级
-*无斑瘰螈
-Paramesotriton labiatus
-二级
-*龙里瘰螈
-Paramesotriton longliensis
-二级
-*茂兰瘰螈
-Paramesotriton maolanensis
-二级
-*七溪岭瘰螈
-Paramesotriton qixilingensis
-二级
-*武陵瘰螈
-Paramesotriton wulingensis
-二级
-*云雾瘰螈
-Paramesotriton yunwuensis
-二级
-*织金瘰螈
-Paramesotriton zhijinensis
-二级
-无尾目
-ANURA
-角蟾科
-Megophryidae
-抱龙角蟾
-Boulenophrys baolongensis
-二级
-凉北齿蟾
-Oreolalax liangbeiensis
-二级
-金顶齿突蟾
-Scutiger chintingensis
-二级
-九龙齿突蟾
-Scutiger jiulongensis
-二级
-木里齿突蟾
-Scutiger muliensis
-二级
-宁陕齿突蟾
-Scutiger ningshanensis
-二级
-平武齿突蟾
-Scutiger pingwuensis
-二级
-哀牢髭蟾
-Vibrissaphora ailaonica
-二级
-峨眉髭蟾
-Vibrissaphora boringii
-二级
-雷山髭蟾
-Vibrissaphora leishanensis
-二级
-原髭蟾
-Vibrissaphora promustache
-二级
-南澳岛角蟾
-Xenophrys insularis
-二级
-水城角蟾
-Xenophrys shuichengensis
-二级
-蟾蜍科
-Bufonidae
-史氏蟾蜍
-Bufo stejnegeri
-二级
-鳞皮小蟾
-Parapelophryne scalpta
-二级
-乐东蟾蜍
-Qiongbufo ledongensis
-二级
-无棘溪蟾
-Torrentophryne aspinia
-二级
-叉舌蛙科
-Dicroglossidae
-*虎纹蛙
-Hoplobatrachus chinensis
-二级
-仅限野外种群
-*脆皮大头蛙
-Limnonectes fragilis
-二级
-*叶氏肛刺蛙
-Yerana yei 
-二级
-蛙科
-Ranidae
-*海南湍蛙
-Amolops hainanensis
-二级
-*香港湍蛙
-Amolops hongkongensis
-二级
-*小腺蛙
-Glandirana minima
-二级
-*务川臭蛙
-Odorrana wuchuanensis
-二级
-树蛙科
-Rhacophoridae
-巫溪树蛙
-Rhacophorus hongchibaensis
-二级
-老山树蛙
-Rhacophorus laoshan
-二级
-罗默刘树蛙
-Liuixalus romeri
-二级
-洪佛树蛙
-Rhacophorus hungfuensis
-二级
+*宽阔水拟小鲵 Pseudohynobius kuankuoshuiensis 二级
+*水城拟小鲵 Pseudohynobius shuichengensis 二级
+*弱唇褶山溪鲵 Batrachuperus cochranae 二级
+*无斑山溪鲵 Batrachuperus karlschmidti 二级
+*龙洞山溪鲵 Batrachuperus londongensis 二级
+*山溪鲵 Batrachuperus pinchonii 二级
+*西藏山溪鲵 Batrachuperus tibetanus 二级
+*盐源山溪鲵 Batrachuperus yenyuanensis 二级
+*阿里山小鲵 Hynobius arisanensis 二级
+*台湾小鲵 Hynobius formosanus 二级
+*观雾小鲵 Hynobius fuca 二级
+*南湖小鲵 Hynobius glacialis 二级
+*东北小鲵 Hynobius leechii 二级
+*楚南小鲵 Hynobius sonani 二级
+*义乌小鲵 Hynobius yiwuensis 二级
+隐鳃鲵科 Cryptobranchidae
+*大鲵 Andrias davidianus 二级 仅限野外种群
+蝾螈科 Salamandridae [17]
+*潮汕蝾螈 Cynops orphicus 二级
+*大凉螈 Liangshantriton taliangensis 二级 原名“大凉疣螈”
+*贵州疣螈 Tylototriton kweichowensis 二级
+*川南疣螈 Tylototriton pseudoverrucosus 二级
+*丽色疣螈 Tylototriton pulcherrima 二级
+*红瘰疣螈 Tylototriton shanjing 二级
+*棕黑疣螈 Tylototriton verrucosus 二级 原名“细瘰疣螈”
+*滇南疣螈 Tylototriton yangi 二级
+*安徽瑶螈 Yaotriton anhuiensis 二级
+*细痣瑶螈 Yaotriton asperrimus 二级 原名“细痣疣螈”
+*宽脊瑶螈 Yaotriton broadoridgus 二级
+*大别瑶螈 Yaotriton dabienicus 二级
+*海南瑶螈 Yaotriton hainanensis 二级
+*浏阳瑶螈 Yaotriton liuyangensis 二级
+*莽山瑶螈 Yaotriton lizhenchangi 二级
+*文县瑶螈 Yaotriton wenxianensis 二级
+*蔡氏瑶螈 Yaotriton ziegleri 二级
+*镇海棘螈 Echinotriton chinhaiensis 一级 原名“镇海疣螈”
+*琉球棘螈 Echinotriton andersoni 二级
+*高山棘螈 Echinotriton maxiquadratus 二级
+*橙脊瘰螈 Paramesotriton aurantius 二级
+*尾斑瘰螈 Paramesotriton caudopunctatus 二级
+*中国瘰螈 Paramesotriton chinensis 二级
+*越南瘰螈 Paramesotriton deloustali 二级
+*富钟瘰螈 Paramesotriton fuzhongensis 二级
+*广西瘰螈 Paramesotriton guangxiensis 二级
+*香港瘰螈 Paramesotriton hongkongensis 二级
+*无斑瘰螈 Paramesotriton labiatus 二级
+*龙里瘰螈 Paramesotriton longliensis 二级
+*茂兰瘰螈 Paramesotriton maolanensis 二级
+*七溪岭瘰螈 Paramesotriton qixilingensis 二级
+*武陵瘰螈 Paramesotriton wulingensis 二级
+*云雾瘰螈 Paramesotriton yunwuensis 二级
+*织金瘰螈 Paramesotriton zhijinensis 二级
+无尾目 ANURA
+角蟾科 Megophryidae
+抱龙角蟾 Boulenophrys baolongensis 二级
+凉北齿蟾 Oreolalax liangbeiensis 二级
+金顶齿突蟾 Scutiger chintingensis 二级
+九龙齿突蟾 Scutiger jiulongensis 二级
+木里齿突蟾 Scutiger muliensis 二级
+宁陕齿突蟾 Scutiger ningshanensis 二级
+平武齿突蟾 Scutiger pingwuensis 二级
+哀牢髭蟾 Vibrissaphora ailaonica 二级
+峨眉髭蟾 Vibrissaphora boringii 二级
+雷山髭蟾 Vibrissaphora leishanensis 二级
+原髭蟾 Vibrissaphora promustache 二级
+南澳岛角蟾 Xenophrys insularis 二级
+水城角蟾 Xenophrys shuichengensis 二级
+蟾蜍科 Bufonidae
+史氏蟾蜍 Bufo stejnegeri 二级
+鳞皮小蟾 Parapelophryne scalpta 二级
+乐东蟾蜍 Qiongbufo ledongensis 二级
+无棘溪蟾 Torrentophryne aspinia 二级
+叉舌蛙科 Dicroglossidae
+*虎纹蛙 Hoplobatrachus chinensis 二级 仅限野外种群
+*脆皮大头蛙 Limnonectes fragilis 二级
+*叶氏肛刺蛙 Yerana yei 二级
+蛙科 Ranidae
+*海南湍蛙 Amolops hainanensis 二级
+*香港湍蛙 Amolops hongkongensis 二级
+*小腺蛙 Glandirana minima 二级
+*务川臭蛙 Odorrana wuchuanensis 二级
+树蛙科 Rhacophoridae
+巫溪树蛙 Rhacophorus hongchibaensis 二级
+老山树蛙 Rhacophorus laoshan 二级
+罗默刘树蛙 Liuixalus romeri 二级
+洪佛树蛙 Rhacophorus hungfuensis 二级
 文昌鱼纲 AMPHIOXI
-文昌鱼目
-AMPHIOXIFORMES
-文昌鱼科#
-Branchiostomatidae
-*厦门文昌鱼
-Branchiostoma belcheri
-二级
-仅限野外种群。原名“文昌鱼”。
-*青岛文昌鱼
-Branchiostoma tsingdauense
-二级
-仅限野外种群
+文昌鱼目 AMPHIOXIFORMES
+文昌鱼科# Branchiostomatidae
+*厦门文昌鱼 Branchiostoma belcheri 二级 仅限野外种群。原名“文昌鱼”。
+*青岛文昌鱼 Branchiostoma tsingdauense 二级 仅限野外种群
 圆口纲 CYCLOSTOMATA
-七鳃鳗目
-PETROMYZONTIFORMES
-七鳃鳗科#
-Petromyzontidae
-*日本七鰓鰻
-Lampetra japonica
-二级
-*东北七鳃鳗
-Lampetra morii
-二级
-*雷氏七鰓鰻
-Lampetra reissneri
-二级
+七鳃鳗目 PETROMYZONTIFORMES
+七鳃鳗科# Petromyzontidae
+*日本七鰓鰻 Lampetra japonica 二级
+*东北七鳃鳗 Lampetra morii 二级
+*雷氏七鰓鰻 Lampetra reissneri 二级
 软骨鱼纲 CHONDRICHTHYES
-鼠鲨目
-LAMNIFORMES
-姥鲨科
-Cetorhinidae
-*姥鲨
-Cetorhinus maximus
-二级
-鼠鲨科
-Lamnidae
-*噬人鲨
-Carcharodon carcharias
-二级
-须鲨目
-ORECTOLOBIFORMES
-鲸鲨科
-Rhincodontidae
-*鲸鲨
-Rhincodon typus
-二级
-鲼目
-MYLIOBATIFORMES
-魟科
-Dasyatidae
-*黄魟
-Dasyatis bennettii
-二级
-仅限陆封种群
+鼠鲨目 LAMNIFORMES
+姥鲨科 Cetorhinidae
+*姥鲨 Cetorhinus maximus 二级
+鼠鲨科 Lamnidae
+*噬人鲨 Carcharodon carcharias 二级
+须鲨目 ORECTOLOBIFORMES
+鲸鲨科 Rhincodontidae
+*鲸鲨 Rhincodon typus 二级
+鲼目 MYLIOBATIFORMES
+魟科 Dasyatidae
+*黄魟 Dasyatis bennettii 二级 仅限陆封种群
 硬骨鱼纲 OSTEICHTHYES
-鲟形目#
-ACIPENSERIFORMES
-鲟科
-Acipenseridae
-*中华鲟
-Acipenser sinensis
-一级
-*长江鲟
-Acipenser dabryanus
-一级
-原名“达氏鲟”
-*鳇
-Huso dauricus
-一级
-仅限野外种群
-*西伯利亚鲟
-Acipenser baerii
-二级
-仅限野外种群
-*裸腹鲟
-Acipenser nudiventris
-二级
-仅限野外种群
-*小体鲟
-Acipenser ruthenus
-二级
-仅限野外种群
-*施氏鲟
-Acipenser schrenckii
-二级
-仅限野外种群
-匙吻鲟科
-Polyodontidae
-*白鲟
-Psephurus gladius
-一级
-鳗鲡目
-ANGUILLIFORMES
-鳗鲡科
-Anguillidae
-*花鳗鲡
-Anguilla marmorata
-二级
-鲱形目
-CLUPEIFORMES
-鲱科
-Clupeidae
-*鲥
-Tenualosa reevesii
-一级
-鲤形目
-CYPRINIFORMES
-双孔鱼科
-Gyrinocheilidae
-*双孔鱼
-Gyrinocheilus aymonieri
-二级
-仅限野外种群
-裸吻鱼科
-Psilorhynchidae
-*平鳍裸吻鱼
-Psilorhynchus homaloptera
-二级
-亚口鱼科
-Catostomidae
-原名“胭脂鱼科”
-*胭脂鱼
-Myxocyprinus asiaticus
-二级
-仅限野外种群
-鲤科
-Cyprinidae
-*唐鱼
-Tanichthys albonubes
-二级
-仅限野外种群
-*稀有鮈鲫
-Gobiocypris rarus
-二级
-仅限野外种群
-*鯮
-Luciobrama macrocephalus
-二级
-*多鳞白鱼
-Anabarilius polylepis
-二级
-*山白鱼
-Anabarilius transmontanus
-二级
-*北方铜鱼
-Coreius septentrionalis
-一级
-*圆口铜鱼
-Coreius guichenoti
-二级
-仅限野外种群
-*大鼻吻鮈
-Rhinogobio nasutus
-二级
-*长鳍吻鮈
-Rhinogobio ventralis
-二级
-*平鳍鳅鮀
-Gobiobotia homalopteroidea
-二级
-*单纹似鱤
-Luciocyprinus langsoni
-二级
-*金线鲃属所有种
-Sinocyclocheilus spp.
-二级
-*四川白甲鱼
-Onychostoma angustistomata
-二级
-*多鳞白甲鱼
-Onychostoma macrolepis
-二级
-仅限野外种群
-*金沙鲈鲤
-Percocypris pingi
-二级
-仅限野外种群
-*花鲈鲤
-Percocypris regani
-二级
-仅限野外种群
-*后背鲈鲤
-Percocypris retrodorslis
-二级
-仅限野外种群
-*张氏鲈鲤
-Percocypris tchangi
-二级
-仅限野外种群
-*裸腹盲鲃
-Typhlobarbus nudiventris
-二级
-*角鱼
-Akrokolioplax bicornis
-二级
-*骨唇黄河鱼
-Chuanchia labiosa
-二级
-*极边扁咽齿鱼
-Platypharodon extremus
-二级
-仅限野外种群
-*细鳞裂腹鱼
-Schizothorax chongi
-二级
-仅限野外种群
-*巨须裂腹鱼
-Schizothorax macropogon
-二级
-*重口裂腹鱼
-Schizothorax davidi
-二级
-仅限野外种群
-*拉萨裂腹鱼
-Schizothorax waltoni
-二级
-仅限野外种群
-*塔里木裂腹鱼
-Schizothorax biddulphi
-二级
-仅限野外种群
-*大理裂腹鱼
-Schizothorax taliensis
-二级
-仅限野外种群
-*扁吻鱼
-Aspiorhynchus laticeps
-一级
-原名“新疆大头鱼”
-*厚唇裸重唇鱼
-Gymnodiptychus pachycheilus
-二级
-仅限野外种群
-*斑重唇鱼
-Diptychus maculatus
-二级
-*尖裸鲤
-Oxygymnocypris stewartii
-二级
-仅限野外种群
-*大头鲤
-Cyprinus pellegrini
-二级
-仅限野外种群
-*小鲤
-Cyprinus micristius
-二级
-*抚仙鲤
-Cyprinus fuxianensis
-二级
-*岩原鲤
-Procypris rabaudi
-二级
-仅限野外种群
-*乌原鲤
-Procypris merus
-二级
-*大鳞鲢
-Hypophthalmichthys harmandi
-二级
-鳅科
-Cobitidae
-*红唇薄鳅
-Leptobotia rubrilabris
-二级
-仅限野外种群
-*黄线薄鳅
-Leptobotia flavolineata
-二级
-*长薄鳅
-Leptobotia elongata
-二级
-仅限野外种群
-条鳅科
-Nemacheilidae
-*无眼岭鳅
-Oreonectes anophthalmus
-二级
-*拟鲇高原鳅
-Triplophysa siluroides
-二级
-仅限野外种群
-*湘西盲高原鳅
-Triplophysa xiangxiensis
-二级
-*小头高原鳅
-Triphophysa minuta
-二级
-爬鳅科
-Balitoridae
-*厚唇原吸鳅
-Protomyzon pachychilus
-二级
-鲇形目
-SILURIFORMES
-鲿科
-Bagridae
-*斑鳠
-Hemibagrus guttatus
-二级
-仅限野外种群
-鲇科
-Siluridae
-*昆明鲇
-Silurus mento
-二级
-𩷶科
-Pangasiidae
-*长丝𩷶
-Pangasius sanitwangsei
-一级
-钝头鮠科
-Amblycipitidae
-*金氏䱀
-Liobagrus kingi
-二级
-鮡科
-Sisoridae
-*长丝黑鮡
-Gagata dolichonema
-二级
-*青石爬鮡
-Euchiloglanis davidi
-二级
-*黑斑原鮡
-Glyptosternum maculatum
-二级
-*魾
-Bagarius bagarius
-二级
-*红魾
-Bagarius rutilus
-二级
-*巨魾
-Bagarius yarrelli
-二级
-鲑形目
-SALMONIFORMES
-鲑科
-Salmonidae
-*细鳞鲑属所有种
-Brachymystax spp.
-二级
-仅限野外种群
-*川陕哲罗鲑
-Hucho bleekeri
-一级
-*哲罗鲑
-Hucho taimen
-二级
-仅限野外种群
-*石川氏哲罗鲑
-Hucho ishikawai
-二级
-*花羔红点鲑
-Salvelinus malma
-二级
-仅限野外种群
-*马苏大马哈鱼
-Oncorhynchus masou
-二级
-*北鲑
-Stenodus leucichthys
-二级
-*北极茴鱼
-Thymallus arcticus
-二级
-仅限野外种群
-*下游黑龙江茴鱼
-Thymallus tugarinae
-二级
-仅限野外种群
-*鸭绿江茴鱼
-Thymallus yaluensis
-二级
-仅限野外种群
-海龙鱼目
-SYNGNATHIFORMES
-海龙鱼科
-Syngnathidae
-*海马属所有种
-Hippocampus spp.
-二级
-仅限野外种群
-鲈形目
-PERCIFORMES
-石首鱼科
-Sciaenidae
-*黄唇鱼
-Bahaba taipingensis
-一级
-隆头鱼科
-Labridae
-*波纹唇鱼
-Cheilinus undulatus
-二级
-仅限野外种群
-鲉形目
-SCORPAENIFORMES
-杜父鱼科
-Cottidae
-*松江鲈
-Trachidermus fasciatus
-二级
-仅限野外种群。原名“松江鲈鱼”
+鲟形目# ACIPENSERIFORMES
+鲟科 Acipenseridae
+*中华鲟 Acipenser sinensis 一级
+*长江鲟 Acipenser dabryanus 一级 原名“达氏鲟”
+*鳇 Huso dauricus 一级 仅限野外种群
+*西伯利亚鲟 Acipenser baerii 二级 仅限野外种群
+*裸腹鲟 Acipenser nudiventris 二级 仅限野外种群
+*小体鲟 Acipenser ruthenus 二级 仅限野外种群
+*施氏鲟 Acipenser schrenckii 二级 仅限野外种群
+匙吻鲟科 Polyodontidae
+*白鲟 Psephurus gladius 一级
+鳗鲡目 ANGUILLIFORMES
+鳗鲡科 Anguillidae
+*花鳗鲡 Anguilla marmorata 二级
+鲱形目 CLUPEIFORMES
+鲱科 Clupeidae
+*鲥 Tenualosa reevesii 一级
+鲤形目 CYPRINIFORMES
+双孔鱼科 Gyrinocheilidae
+*双孔鱼 Gyrinocheilus aymonieri 二级 仅限野外种群
+裸吻鱼科 Psilorhynchidae
+*平鳍裸吻鱼 Psilorhynchus homaloptera 二级
+亚口鱼科 Catostomidae 原名“胭脂鱼科”
+*胭脂鱼 Myxocyprinus asiaticus 二级 仅限野外种群
+鲤科 Cyprinidae
+*唐鱼 Tanichthys albonubes 二级 仅限野外种群
+*稀有鮈鲫 Gobiocypris rarus 二级 仅限野外种群
+*鯮 Luciobrama macrocephalus 二级
+*多鳞白鱼 Anabarilius polylepis 二级
+*山白鱼 Anabarilius transmontanus 二级
+*北方铜鱼 Coreius septentrionalis 一级
+*圆口铜鱼 Coreius guichenoti 二级 仅限野外种群
+*大鼻吻鮈 Rhinogobio nasutus 二级
+*长鳍吻鮈 Rhinogobio ventralis 二级
+*平鳍鳅鮀 Gobiobotia homalopteroidea 二级
+*单纹似鱤 Luciocyprinus langsoni 二级
+*金线鲃属所有种 Sinocyclocheilus spp. 二级
+*四川白甲鱼 Onychostoma angustistomata 二级
+*多鳞白甲鱼 Onychostoma macrolepis 二级 仅限野外种群
+*金沙鲈鲤 Percocypris pingi 二级 仅限野外种群
+*花鲈鲤 Percocypris regani 二级 仅限野外种群
+*后背鲈鲤 Percocypris retrodorslis 二级 仅限野外种群
+*张氏鲈鲤 Percocypris tchangi 二级 仅限野外种群
+*裸腹盲鲃 Typhlobarbus nudiventris 二级
+*角鱼 Akrokolioplax bicornis 二级
+*骨唇黄河鱼 Chuanchia labiosa 二级
+*极边扁咽齿鱼 Platypharodon extremus 二级 仅限野外种群
+*细鳞裂腹鱼 Schizothorax chongi 二级 仅限野外种群
+*巨须裂腹鱼 Schizothorax macropogon 二级
+*重口裂腹鱼 Schizothorax davidi 二级 仅限野外种群
+*拉萨裂腹鱼 Schizothorax waltoni 二级 仅限野外种群
+*塔里木裂腹鱼 Schizothorax biddulphi 二级 仅限野外种群
+*大理裂腹鱼 Schizothorax taliensis 二级 仅限野外种群
+*扁吻鱼 Aspiorhynchus laticeps 一级 原名“新疆大头鱼”
+*厚唇裸重唇鱼 Gymnodiptychus pachycheilus 二级 仅限野外种群
+*斑重唇鱼 Diptychus maculatus 二级
+*尖裸鲤 Oxygymnocypris stewartii 二级 仅限野外种群
+*大头鲤 Cyprinus pellegrini 二级 仅限野外种群
+*小鲤 Cyprinus micristius 二级
+*抚仙鲤 Cyprinus fuxianensis 二级
+*岩原鲤 Procypris rabaudi 二级 仅限野外种群
+*乌原鲤 Procypris merus 二级
+*大鳞鲢 Hypophthalmichthys harmandi 二级
+鳅科 Cobitidae
+*红唇薄鳅 Leptobotia rubrilabris 二级 仅限野外种群
+*黄线薄鳅 Leptobotia flavolineata 二级
+*长薄鳅 Leptobotia elongata 二级 仅限野外种群
+条鳅科 Nemacheilidae
+*无眼岭鳅 Oreonec tes anophthalmus 二级
+*拟鲇高原鳅 Triplophysa siluroides 二级 仅限野外种群
+*湘西盲高原鳅 Triplophysa xiangxiensis 二级
+*小头高原鳅 Triphophysa minuta 二级
+爬鳅科 Balitoridae
+*厚唇原吸鳅 Protomyzon pachychilus 二级
+鲇形目 SILURIFORMES
+鲿科 Bagridae
+*斑鳠 Hemibagrus guttatus 二级 限野外种群
+鲇科 Siluridae
+*昆明鲇 Silurus mento 二级
+𩷶科 Pangasiidae
+*长丝𩷶 Pangasius sanitwangsei 一级
+钝头鮠科 Amblycipitidae
+*金氏䱀 Liobagrus kingi 二级
+鮡科 Sisoridae
+*长丝黑鮡 Gagata dolichonema 二级
+*青石爬鮡 Euchiloglanis davidi 二级
+*黑斑原鮡 Glyptosternum maculatum 二级
+*魾 Bagarius bagarius 二级
+*红魾 Bagarius rutilus 二级
+*巨魾 Bagarius yarrelli 二级
+鲑形目 SALMONIFORMES
+鲑科 Salmonidae
+*细鳞鲑属所有种 Brachymystax spp. 二级 仅限野外种群
+*川陕哲罗鲑 Hucho bleekeri 一级
+*哲罗鲑 Hucho taimen 二级 仅限野外种群
+*石川氏哲罗鲑 Hucho ishikawai 二级
+*花羔红点鲑 Salvelinus malma 二级 仅限野外种群
+*马苏大马哈鱼 Oncorhynchus masou 二级
+*北鲑 Stenodus leucichthys 二级
+*北极茴鱼 Thymallus arcticus 二级 仅限野外种群
+*下游黑龙江茴鱼 Thymallus tugarinae 二级 仅限野外种群
+*鸭绿江茴鱼 Thymallus yaluensis 二级 仅限野外种群
+海龙鱼目 SYNGNATHIFORMES
+海龙鱼科 Syngnathidae
+*海马属所有种 Hippocampus spp. 二级 仅限野外种群
+鲈形目 PERCIFORMES
+石首鱼科 Sciaenidae
+*黄唇鱼 Bahaba taipingensis 一级
+隆头鱼科 Labridae
+*波纹唇鱼 Cheilinus undulatus 二级 仅限野外种群
+鲉形目 SCORPAENIFORMES
+杜父鱼科 Cottidae
+*松江鲈 Trachidermus fasciatus 二级 仅限野外种群。原名“松江鲈鱼”
 半索动物门 HEMICHORDATA
 肠鳃纲 ENTEROPNEUSTA
-柱头虫目
-BALANOGLOSSIDA
-殖翼柱头虫科
-Ptychoderidae
-*多鳃孔舌形虫
-Glossobalanus polybranchioporus
-一级
-*三崎柱头虫
-Balanoglossus misakiensis
-二级
-*短殖舌形虫
-Glossobalanus mortenseni
-二级
-*肉质柱头虫
-Balanoglossus carnosus
-二级
-*黄殖翼柱头虫
-Ptychodera flava
-二级
-史氏柱头虫科
-Spengeliidae
-*青岛橡头虫
-Glandiceps qingdaoensis
-二级
-玉钩虫科
-Harrimaniidae
-*黄岛长吻虫
-Saccoglossus hwangtauensis
-一级
+柱头虫目 BALANOGLOSSIDA
+殖翼柱头虫科 Ptychoderidae
+*多鳃孔舌形虫 Glossobalanus polybranchioporus 一级
+*三崎柱头虫 Balanoglossus misakiensis 二级
+*短殖舌形虫 Glossobalanus mortenseni 二级
+*肉质柱头虫 Balanoglossus carnosus 二级
+*黄殖翼柱头虫 Ptychodera flava 二级
+史氏柱头虫科 Spengeliidae
+*青岛橡头虫 Glandiceps qingdaoensis 二级
+玉钩虫科 Harrimaniidae
+*黄岛长吻虫 Saccoglossus hwangtauensis 一级
 节肢动物门 ARTHROPODA
 昆虫纲 INSECTA
-双尾目
-DIPLURA
-铗𧈢科
-Japygidae
-伟铗𧈢
-Atlasjapyx atlas
-二级
-䗛目
-PHASMATODEA
-叶䗛科#
-Phyllidae
-丽叶䗛
-Phyllium pulchrifolium
-二级
-中华叶䗛
-Phyllium sinensis
-二级
-泛叶䗛
-Phyllium celebicum
-二级
-翔叶䗛
-Phyllium westwoodi
-二级
-东方叶䗛
-Phyllium siccifolium
-二级
-独龙叶䗛
-Phyllium drunganum
-二级
-同叶䗛
-Phyllium parum
-二级
-滇叶䗛
-Phyllium yunnanense
-二级
-藏叶䗛
-Phyllium tibetense
-二级
-珍叶䗛
-Phyllium rarum
-二级
-蜻蜓目
-ODONATA
-箭蜓科
-Gomphidae
-扭尾曦春蜓
-Heliogomphus retroflexus
-二级
-原名“尖板曦箭蜓”
-棘角蛇纹春蜓
-Ophiogomphus spinicornis
-二级
-原名“宽纹北箭蜓”
-缺翅目
-ZORAPTERA
-缺翅虫科
-Zorotypidae
-中华缺翅虫
-Zorotypus sinensis
-二级
-墨脱缺翅虫
-Zorotypus medoensis
-二级
-蛩蠊目
-GRYLLOBLATTODAE
-蛩蠊科
-Grylloblattidae
-中华蛩蠊
-Galloisiana sinensis
-一级
-陈氏西蛩蠊
-Grylloblattella cheni
-一级
-脉翅目
-NEUROPTERA
-旌蛉科
-Nemopteridae
-中华旌蛉
-Nemopistha sinica
-二级
-鞘翅目
-COLEOPTERA
-步甲科
-Carabidae
-拉步甲
-Carabus lafossei
-二级
-细胸大步甲
-Carabus osawai
-二级
-巫山大步甲
-Carabus ishizukai
-二级
-库班大步甲
-Carabus kubani
-二级
-桂北大步甲
-Carabus guibeicus
-二级
-贞大步甲
-Carabus penelope
-二级
-蓝鞘大步甲
-Carabus cyaneogigas
-二级
-滇川大步甲
-Carabus yunanensis
-二级
-硕步甲
-Carabus davidi
-二级
-两栖甲科
-Amphizoidae
-中华两栖甲
-Amphizoa sinica
-二级
-长阎甲科
-Synteliidae
-中华长阎甲
-Syntelia sinica
-二级
-大卫长阎甲
-Syntelia davidis
-二级
-玛氏长阎甲
-Syntelia mazuri
-二级
-臂金龟科
-Euchiridae
-戴氏棕臂金龟
-Propomacrus davidi
-二级
-玛氏棕臂金龟
-Propomacrus muramotoae
-二级
-越南臂金龟
-Cheirotonus battareli
-二级
-福氏彩臂金龟
-Cheirotonus fujiokai
-二级
-格彩臂金龟
-Cheirotonus gestroi
-二级
-台湾长臂金龟
-Cheirotonus formosanus
-二级
-阳彩臂金龟
-Cheirotonus jansoni
-二级
-印度长臂金龟
-Cheirotonus macleayii
-二级
-昭沼氏长臂金龟
-Cheirotonus terunumai
-二级
-金龟科
-Scarabaeidae
-艾氏泽蜣螂
-Scarabaeus erichsoni
-二级
-拜氏蜣螂
-Scarabaeus babori
-二级
-悍马巨蜣螂
-Heliocopris bucephalus
-二级
-上帝巨蜣螂
-Heliocopris dominus
-二级
-迈达斯巨蜣螂
-Heliocopris midas
-二级
-犀金龟科
-Dynastidae
-戴叉犀金龟
-Trypoxylus davidis
-二级
+双尾目 DIPLURA
+铗𧈢科 Japygidae
+伟铗𧈢 Atlasjapyx atlas 二级
+䗛目 PHASMATODEA
+叶䗛科# Phyllidae
+丽叶䗛 Phyllium pulchrifolium 二级
+中华叶䗛 Phyllium sinensis 二级
+泛叶䗛 Phyllium celebicum 二级
+翔叶䗛 Phyllium westwoodi 二级
+东方叶䗛 Phyllium siccifolium 二级
+独龙叶䗛 Phyllium drunganum 二级
+同叶䗛 Phyllium parum 二级
+滇叶䗛 Phyllium yunnanense 二级
+藏叶䗛 Phyllium tibetense 二级
+珍叶䗛 Phyllium rarum 二级
+蜻蜓目 ODONATA
+箭蜓科 Gomphidae
+扭尾曦春蜓 Heliogomphus retroflexus 二级 原名“尖板曦箭蜓”
+棘角蛇纹春蜓 Ophiogomphus spinicornis 二级 原名“宽纹北箭蜓”
+缺翅目 ZORAPTERA
+缺翅虫科 Zorotypidae
+中华缺翅虫 Zorotypus sinensis 二级
+墨脱缺翅虫 Zorotypus medoensis 二级
+蛩蠊目 GRYLLOBLATTODAE
+蛩蠊科 Grylloblattidae
+中华蛩蠊 Galloisiana sinensis 一级
+陈氏西蛩蠊 Grylloblattella cheni 一级
+脉翅目 NEUROPTERA
+旌蛉科 Nemopteridae
+中华旌蛉 Nemopistha sinica 二级
+鞘翅目 COLEOPTERA
+步甲科 Carabidae
+拉步甲 Carabus lafossei 二级
+细胸大步甲 Carabus osawai 二级
+巫山大步甲 Carabus ishizukai 二级
+库班大步甲 Carabus kubani 二级
+桂北大步甲 Carabus guibeicus 二级
+贞大步甲 Carabus penelope 二级
+蓝鞘大步甲 Carabus cyaneogigas 二级
+滇川大步甲 Carabus yunanensis 二级
+硕步甲 Carabus davidi 二级
+两栖甲科 Amphizoidae
+中华两栖甲 Amphizoa sinica 二级
+长阎甲科 Synteliidae
+中华长阎甲 Syntelia sinica 二级
+大卫长阎甲 Syntelia davidis 二级
+玛氏长阎甲 Syntelia mazuri 二级
+臂金龟科 Euchiridae
+戴氏棕臂金龟 Propomacrus davidi 二级
+玛氏棕臂金龟 Propomacrus muramotoae 二级
+越南臂金龟 Cheirotonus battareli 二级
+福氏彩臂金龟 Cheirotonus fujiokai 二级
+格彩臂金龟 Cheirotonus gestroi 二级
+台湾长臂金龟 Cheirotonus formosanus 二级
+阳彩臂金龟 Cheirotonus jansoni 二级
+印度长臂金龟 Cheirotonus macleayii 二级
+昭沼氏长臂金龟 Cheirotonus terunumai 二级
+金龟科 Scarabaeidae
+艾氏泽蜣螂 Scarabaeus erichsoni 二级
+拜氏蜣螂 Scarabaeus babori 二级
+悍马巨蜣螂 Heliocopris bucephalus 二级
+上帝巨蜣螂 Heliocopris dominus 二级
+迈达斯巨蜣螂 Heliocopris midas 二级
+犀金龟科 Dynastidae
+戴叉犀金龟 Trypoxylus davidis 二级
 原名“叉犀金龟”
-粗尤犀金龟
-Eupatorus hardwickii
-二级
-细角尤犀金龟
-Eupatorus gracilicornis
-二级
-胫晓扁犀金龟
-Eophileurus tetraspermexitus
-二级
-锹甲科
-Lucanidae
-安达刀锹甲
-Dorcus antaeus
-二级
-巨叉深山锹甲
-Lucanus hermani
-二级
-鳞翅目
-LEPIDOPTERA
-凤蝶科
-Papilionidae
-喙凤蝶
-Teinopalpus imperialism
-二级
-金斑喙凤蝶
-Teinopalpus aureus
-一级
-裳凤蝶
-Troides helena
-二级
-金裳凤蝶
-Troides aeacus
-二级
-荧光裳凤蝶
-Troides magellanus
-二级
-鸟翼裳凤蝶
-Troides amphrysus
-二级
-珂裳凤蝶
-Troides criton
-二级
-楔纹裳凤蝶
-Troides cuneifera
-二级
-小斑裳凤蝶
-Troides haliphron
-二级
-多尾凤蝶
-Bhutanitis lidderdalii
-二级
-不丹尾凤蝶
-Bhutanitis ludlowi
-二级
-双尾褐凤蝶
-Bhutanitis mansfieldi
-二级
-玄裳尾凤蝶
-Bhutanitis nigrilima
-二级
-三尾褐凤蝶
-Bhutanitis thaidina
-二级
-玉龙尾凤蝶
-Bhutanitis yulongensisn
-二级
-丽斑尾凤蝶
-Bhutanitis pulchristriata
-二级
-锤尾凤蝶
-Losaria coon
-二级
-中华虎凤蝶
-Luehdorfia chinensis
-二级
-蛱蝶科
-Nymphalidae
-最美紫蛱蝶
-Sasakia pulcherrima
-二级
-黑紫蛱蝶
-Sasakia funebris
-二级
-绢蝶科
-Parnassidae
-阿波罗绢蝶
-Parnassius apollo
-二级
-君主娟蝶
-Parnassius imperator
-二级
-大斑霾灰蝶
-Maculinea arionides
-二级
-秀山霾灰蝶
-Phengaris xiushani
-二级
+粗尤犀金龟 Eupatorus hardwickii 二级
+细角尤犀金龟 Eupatorus gracilicornis 二级
+胫晓扁犀金龟 Eophileurus tetraspermexitus 二级
+锹甲科 Lucanidae
+安达刀锹甲 Dorcus antaeus 二级
+巨叉深山锹甲 Lucanus hermani 二级
+鳞翅目 LEPIDOPTERA
+凤蝶科 Papilionidae
+喙凤蝶 Teinopalpus imperialism 二级
+金斑喙凤蝶 Teinopalpus aureus 一级
+裳凤蝶 Troides helena 二级
+金裳凤蝶 Troides aeacus 二级
+荧光裳凤蝶 Troides magellanus 二级
+鸟翼裳凤蝶 Troides amphrysus 二级
+珂裳凤蝶 Troides criton 二级
+楔纹裳凤蝶 Troides cuneifera 二级
+小斑裳凤蝶 Troides haliphron 二级
+多尾凤蝶 Bhutanitis lidderdalii 二级
+不丹尾凤蝶 Bhutanitis ludlowi 二级
+双尾褐凤蝶 Bhutanitis mansfieldi 二级
+玄裳尾凤蝶 Bhutanitis nigrilima 二级
+三尾褐凤蝶 Bhutanitis thaidina 二级
+玉龙尾凤蝶 Bhutanitis yulongensisn 二级
+丽斑尾凤蝶 Bhutanitis pulchristriata 二级
+锤尾凤蝶 Losaria coon 二级
+中华虎凤蝶 Luehdorfia chinensis 二级
+蛱蝶科 Nymphalidae
+最美紫蛱蝶 Sasakia pulcherrima 二级
+黑紫蛱蝶 Sasakia funebris 二级
+绢蝶科 Parnassidae
+阿波罗绢蝶 Parnassius apollo 二级
+君主娟蝶 Parnassius imperator 二级
+大斑霾灰蝶 Maculinea arionides 二级
+秀山霾灰蝶 Phengaris xiushani 二级
 蛛形纲 ARACHNIDA
-蜘蛛目
-ARANEAE
-捕鸟蛛科
-Theraphosidae
-海南塞勒蛛
-Cyriopagopus hainanus
-二级
+蜘蛛目 ARANEAE
+捕鸟蛛科 Theraphosidae
+海南塞勒蛛 Cyriopagopus hainanus 二级
 肢口纲 MEROSTOMATA
-剑尾目
-XIPHOSURA
-鲎科#
-Tachypleidae
-*中国鲎
-Tachypleus tridentatus
-二级
-*圆尾蝎鲎
-Carcinoscorpius rotundicauda
-二级
+剑尾目 XIPHOSURA
+鲎科# Tachypleidae
+*中国鲎 Tachypleus tridentatus 二级
+*圆尾蝎鲎 Carcinoscorpius rotundicauda 二级
 软甲纲 MALACOSTRACA
-十足目
-DECAPODA
-龙虾科
-Palinuridae
-*锦绣龙虾
-Panulirus ornatus
-二级
-仅限野外种群
+十足目 DECAPODA
+龙虾科 Palinuridae
+*锦绣龙虾 Panulirus ornatus 二级 仅限野外种群
 软体动物门 MOLLUSCA
 双壳纲 BIVALVIA
-珍珠贝目
-PTERIOIDA
-珍珠贝科
-Pteriidae
-*大珠母贝
-Pinctada maxima
-二级
-仅限野外种群
-帘蛤目
-VENEROIDA
-砗磲科#
-Tridacnidae
-*大砗磲
-Tridacna gigas
-一级
-原名“库氏砗磲”
-*无鳞砗磲
-Tridacna derasa
-二级
-仅限野外种群
-*鳞砗磲
-Tridacna squamosa
-二级
-仅限野外种群
-*长砗磲
-Tridacna maxima
-二级
-仅限野外种群
-*番红砗磲
-Tridacna crocea
-二级
-仅限野外种群
-*砗蚝
-Hippopus hippopus
-二级
-仅限野外种群
-蚌目
-UNIONIDA
-珍珠蚌科
-Margaritanidae
-*珠母珍珠蚌
-Margarritiana dahurica
-二级
-仅限野外种群
-蚌科
-Unionidae
-*佛耳丽蚌
-Lamprotula mansuyi
-二级
-*绢丝丽蚌
-Lamprotula fibrosa
-二级
-*背瘤丽蚌
-Lamprotula leai
-二级
-*多瘤丽蚌
-Lamprotula polysticta
-二级
-*刻裂丽蚌
-Lamprotula scripta
-二级
-截蛏科
-Solecurtidae
-*中国淡水蛏
-Novaculina chinensis
-二级
-*龙骨蛏蚌
-Solenaia carinatus
-二级
+珍珠贝目 PTERIOIDA
+珍珠贝科 Pteriidae
+*大珠母贝 Pinctada maxima 二级 仅限野外种群
+帘蛤目 VENEROIDA
+砗磲科# Tridacnidae
+*大砗磲 Tridacna gigas 一级 原名“库氏砗磲”
+*无鳞砗磲 Tridacna derasa 二级 仅限野外种群
+*鳞砗磲 Tridacna squamosa 二级 仅限野外种群
+*长砗磲 Tridacna maxima 二级 仅限野外种群
+*番红砗磲 Tridacna crocea 二级 仅限野外种群
+*砗蚝 Hippopus hippopus 二级 仅限野外种群
+蚌目 UNIONIDA
+珍珠蚌科 Margaritanidae
+*珠母珍珠蚌 Margarritiana dahurica 二级 仅限野外种群
+蚌科 Unionidae
+*佛耳丽蚌 Lamprotula mansuyi 二级
+*绢丝丽蚌 Lamprotula fibrosa 二级
+*背瘤丽蚌 Lamprotula leai 二级
+*多瘤丽蚌 Lamprotula polysticta 二级
+*刻裂丽蚌 Lamprotula scripta 二级
+截蛏科 Solecurtidae
+*中国淡水蛏 Novaculina chinensis 二级
+*龙骨蛏蚌 Solenaia carinatus 二级
 头足纲 CEPHALOPODA
-鹦鹉螺目
-NAUTILIDA
-鹦鹉螺科
-Nautilidae
-*鹦鹉螺
-Nautilus pompilius
-一级
+鹦鹉螺目 NAUTILIDA
+鹦鹉螺科 Nautilidae
+*鹦鹉螺 Nautilus pompilius 一级
 腹足纲 GASTROPODA
-田螺科
-Viviparidae
-*螺蛳
-Margarya melanioides
-二级
-蝾螺科
-Turbinidae
-*夜光蝾螺
-Turbo marmoratus
-二级
-宝贝科
-Cypraeidae
-*虎斑宝贝
-Cypraea tigris
-二级
-冠螺科
-Cassididae
-*唐冠螺
-Cassis cornuta
-二级
-原名“冠螺”
-法螺科
-Charoniidae
-*法螺
-Charonia tritonis
-二级
+田螺科 Viviparidae
+*螺蛳 Margarya melanioides 二级
+蝾螺科 Turbinidae
+*夜光蝾螺 Turbo marmoratus 二级
+宝贝科 Cypraeidae
+*虎斑宝贝 Cypraea tigris 二级
+冠螺科 Cassididae
+*唐冠螺 Cassis cornuta 二级 原名“冠螺”
+法螺科 Charoniidae
+*法螺 Charonia tritonis 二级
 刺胞动物门 CNIDARIA
 珊瑚纲 ANTHOZOA
-角珊瑚目#
-ANTIPATHARIA
-*角珊瑚目所有种
-ANTIPATHARIA spp.
-二级
-石珊瑚目#
-SCLERACTINIA
-*石珊瑚目所有种
-SCLERACTINIA spp.
-二级
-苍珊瑚目
-HELIOPORACEA
-苍珊瑚科#
-Helioporidae
-*苍珊瑚科所有种
-Helioporidae spp.
-二级
-软珊瑚目
-ALCYONACEA
-笙珊瑚科
-Tubiporidae
-*笙珊瑚
-Tubipora musica
-二级
-红珊瑚科#
-Coralliidae
-*红珊瑚科所有种
-Coralliidae spp.
-一级
-竹节柳珊瑚科
-Isididae
-*粗糙竹节柳珊瑚
-Isis hippuris
-二级
-*细枝竹节柳珊瑚
-Isis minorbrachyblasta
-二级
-*网枝竹节柳珊瑚
-Isis reticulata
-二级
+角珊瑚目# ANTIPATHARIA
+*角珊瑚目所有种 ANTIPATHARIA spp. 二级
+石珊瑚目# SCLERACTINIA
+*石珊瑚目所有种 SCLERACTINIA spp. 二级
+苍珊瑚目 HELIOPORACEA
+苍珊瑚科# Helioporidae
+*苍珊瑚科所有种 Helioporidae spp. 二级
+软珊瑚目 ALCYONACEA
+笙珊瑚科 Tubiporidae
+*笙珊瑚 Tubipora musica 二级
+红珊瑚科# Coralliidae
+*红珊瑚科所有种 Coralliidae spp. 一级
+竹节柳珊瑚科 Isididae
+*粗糙竹节柳珊瑚 Isis hippuris 二级
+*细枝竹节柳珊瑚 Isis minorbrachyblasta 二级
+*网枝竹节柳珊瑚 Isis reticulata 二级
 水螅纲 HYDROZOA
-花裸螅目
-ANTHOATHECATA
-多孔螅科#
-Milleporidae
-*分叉多孔螅
-Millepora dichotoma
-二级
-*节块多孔螅
-Millepora exaesa
-二级
+花裸螅目 ANTHOATHECATA
+多孔螅科# Milleporidae
+*分叉多孔螅 Millepora dichotoma 二级
+*节块多孔螅 Millepora exaesa 二级
 *窝形多孔螅 Millepora foveolata 二级
 *错综多孔螅 Millepora intricata 二级
 *阔叶多孔螅 Millepora latifolia 二级
 *扁叶多孔螅 Millepora platyphylla 二级
 *娇嫩多孔螅 Millepora tenera 二级
 柱星螅科# Stylasteridae 
-*无序双孔螅 Distichopora irregularis
-二级 *紫色双孔螅 Distichopora violacea
-二级 *佳丽刺柱螅 Errina dabneyi
-二级 *扇形柱星螅 Stylaster flabelliformis
-二级 *细巧柱星螅 Sty
-</t>
+*无序双孔螅 Distichopora irregularis 二级 
+*紫色双孔螅 Distichopora violacea 二级 
+*佳丽刺柱螅 Errina dabneyi 二级 
+*扇形柱星螅 Stylaster flabelliformis 二级 
+*细巧柱星螅 S</t>
   </si>
   <si>
     <t>群众环保意识达到60后可以拜托环保局工作人员找到</t>
   </si>
   <si>
     <t>《国家重点保护植物名录》</t>
+  </si>
+  <si>
+    <t>中文名 学名 保护级别 备注
+苔藓植物 Bryophytes
+白发藓科
+Leucobryaceae
+桧叶白发藓
+Leucobryum juniperoideum
+二级
+泥炭藓科
+Sphagnaceae
+多纹泥炭藓*
+Sphagnum multifibrosum
+二级
+粗叶泥炭藓*
+Sphagnum squarrosum
+二级
+藻苔科
+Takakiaceae
+角叶藻苔
+Takakia ceratophylla
+二级
+藻苔
+Takakia lepidozioides
+二级
+石松类和蕨类植物 Lycophytes and Ferns
+石松科
+Lycopodiaceae
+石杉属（所有种）
+Huperzia spp.
+二级
+马尾杉属（所有种）
+Phlegmariurus spp.
+二级
+水韭科
+Isoëtaceae
+水韭属（所有种）*
+Isoëtes spp.
+一级
+瓶尔小草科
+Ophioglossaceae
+七指蕨
+Helminthostachys zeylanica
+二级
+带状瓶尔小草
+Ophioglossum pendulum
+二级
+合囊蕨科
+Marattiaceae
+观音座莲属（所有种）
+Angiopteris spp.
+二级
+天星蕨
+Christensenia assamica
+二级
+Flora of China使用Christensenia aesculifolia
+金毛狗科
+Cibotiaceae
+金毛狗属（所有种）
+Cibotium spp.
+二级
+其他常用中文名：金毛狗蕨属
+桫椤科
+Cyatheaceae
+桫椤科（所有种，小黑桫椤和粗齿桫椤除外）
+Cyatheaceae spp. （excl. Alsophila metteniana &amp; A. denticulata）
+二级
+凤尾蕨科
+Pteridaceae
+荷叶铁线蕨*
+Adiantum nelumboides
+一级
+水蕨属（所有种）*
+Ceratopteris spp.
+二级
+冷蕨科
+Cystopteridaceae
+光叶蕨
+Cystopteris chinensis
+一级
+铁角蕨科
+Aspleniaceae
+对开蕨
+Asplenium komarovii
+二级
+乌毛蕨科
+Blechnaceae
+苏铁蕨
+Brainea insignis
+二级
+水龙骨科
+Polypodiaceae
+鹿角蕨
+Platycerium wallichii
+二级
+其他常用中文名：绿孢鹿角蕨
+裸子植物 Gymnosperms
+苏铁科
+Cycadaceae
+苏铁属（所有种）
+Cycas spp.
+一级
+银杏科
+Ginkgoaceae
+银杏
+Ginkgo biloba
+一级
+罗汉松科
+Podocarpaceae
+罗汉松属（所有种）
+Podocarpus spp.
+二级
+柏科
+Cupressaceae
+翠柏
+Calocedrus macrolepis
+二级
+岩生翠柏
+Calocedrus rupestris
+二级
+红桧
+Chamaecyparis formosensis
+二级
+岷江柏木
+Cupressus chengiana
+二级
+巨柏
+Cupressus gigantea
+一级
+西藏柏木
+Cupressus torulosa
+一级
+福建柏
+Fokienia hodginsii
+二级
+水松
+Glyptostrobus pensilis
+一级
+水杉
+Metasequoia glyptostroboides
+一级
+台湾杉（秃杉）
+Taiwania cryptomerioides
+二级
+包括 Taiwania flousiana
+朝鲜崖柏
+Thuja koraiensis
+二级
+崖柏
+Thuja sutchuenensis
+一级
+越南黄金柏
+Xanthocyparis vietnamensis
+二级
+红豆杉科
+Taxaceae
+穗花杉属（所有种）
+Amentotaxus spp.
+二级
+海南粗榧
+Cephalotaxus hainanensis
+二级
+贡山三尖杉
+Cephalotaxus lanceolata
+二级
+篦子三尖杉
+Cephalotaxus oliveri
+二级
+白豆杉
+Pseudotaxus chienii
+二级
+红豆杉属（所有种）
+Taxus spp.
+一级
+榧树属（所有种）
+Torreya spp.
+二级
+松科
+Pinaceae
+百山祖冷杉
+Abies beshanzuensis
+一级
+资源冷杉
+Abies beshanzuensis var. ziyuanensis
+一级
+秦岭冷杉
+Abies chensiensis
+二级
+梵净山冷杉
+Abies fanjingshanensis
+一级
+元宝山冷杉
+Abies yuanbaoshanensis
+一级
+银杉
+Cathaya argyrophylla
+一级
+油杉属（所有种，铁坚油杉、云南油杉、油杉除外）
+Keteleeria spp. （excl. K. davidiana var. davidiana，K. evelyniana &amp; K. fortunei）
+二级
+大果青扦
+Picea neoveitchii
+二级
+大别山五针松
+Pinus dabeshanensis
+一级
+其他常用学名：Pinus armandii var. dabeshanensis， Pinus fenzeliana var. dabeshanensis
+兴凯赤松
+Pinus densiflora var. ussuriensis
+二级
+红松
+Pinus koraiensis
+二级
+华南五针松
+Pinus kwangtungensis
+二级
+雅加松
+Pinus massoniana var. hainanensis
+二级
+巧家五针松
+Pinus squamata
+一级
+长白松
+Pinus sylvestris var. sylvestriformis
+二级
+毛枝五针松
+Pinus wangii
+一级
+金钱松
+Pseudolarix amabilis
+二级
+黄杉属（所有种）
+Pseudotsuga spp.
+二级
+麻黄科
+Ephedraceae
+斑子麻黄
+Ephedra rhytidosperma
+二级
+被子植物 Angiosperms
+莼菜科
+Cabombaceae
+莼菜*
+Brasenia schreberi
+二级
+睡莲科
+Nymphaeaceae
+雪白睡莲*
+Nymphaea candida
+二级
+五味子科
+Schisandraceae
+地枫皮
+Illicium difengpi
+二级
+属的系统学位置发生变动
+大果五味子
+Schisandra macrocarpa
+二级
+马兜铃科
+Aristolochiaceae
+囊花马兜铃
+Aristolochia utriformis
+二级
+金耳环
+Asarum insigne
+二级
+马蹄香
+Saruma henryi
+二级
+肉豆蔻科
+Myristicaceae
+风吹楠属（所有种）
+Horsfieldia spp.
+二级
+云南肉豆蔻
+Myristica yunnanensis
+二级
+木兰科
+Magnoliaceae
+长蕊木兰
+Alcimandra cathcartii
+二级
+厚朴
+Houpoea officinalis
+二级
+包括种下等级，凹叶厚朴并入本种。
+长喙厚朴
+Houpoea rostrata
+二级
+其他常用学名：Magnolia rostrata
+大叶木兰
+Lirianthe henryi
+二级
+其他常用学名：Magnolia henryi
+馨香玉兰（馨香木兰）
+Lirianthe odoratissima
+二级
+其他常用学名：Magnolia
+odoratissima
+鹅掌楸（马褂木）
+Liriodendron chinense
+二级
+香木莲
+Manglietia aromatica
+二级
+大叶木莲
+Manglietia megaphylla
+二级
+落叶木莲
+Manglietia decidua
+二级
+大果木莲
+Manglietia grandis
+二级
+厚叶木莲
+Manglietia pachyphylla
+二级
+毛果木莲
+Manglietia ventii
+二级
+香子含笑（香籽含笑）
+Michelia hypolampra
+二级
+广东含笑
+Michelia guangdongensis
+二级
+石碌含笑
+Michelia shiluensis
+二级
+峨眉含笑
+Michelia wilsonii
+二级
+圆叶天女花（圆叶玉兰）
+Oyama sinensis
+二级
+其他常用学名： Magnolia sinensis
+西康天女花（西康玉兰）
+Oyama wilsonii
+二级
+其他常用学名： Magnolia wilsonii
+华盖木
+Pachylarnax sinica
+一级
+峨眉拟单性木兰
+Parakmeria omeiensis
+一级
+云南拟单性木兰
+Parakmeria yunnanensis
+二级
+合果木
+Paramichelia baillonii
+二级
+其他常用学名： Michelia baillonii
+焕镛木（单性木兰）
+Woonyoungia septentrionalis
+一级
+宝华玉兰
+Yulania zenii
+二级
+其他常用学名：Magnolia zenii
+番荔枝科
+Annonaceae
+蕉木
+Chieniodendron hainanense
+二级
+其他常用学名：Meiogyne hainanensis
+文采木
+Wangia saccopetaloides
+二级
+其他常用中文名：囊瓣亮花木、亮花假鹰爪
+蜡梅科
+Calycanthaceae
+夏蜡梅
+Calycanthus chinensis
+二级
+莲叶桐科
+Hernandiaceae
+莲叶桐
+Hernandia nymphaeifolia
+二级
+樟科
+Lauraceae
+油丹
+Alseodaphne hainanensis
+二级
+皱皮油丹
+Alseodaphne rugosa
+二级
+茶果樟
+Cinnamomum chago
+二级
+天竺桂
+Cinnamomum japonicum
+二级
+其他常用中文名：普陀樟
+油樟
+Cinnamomum longepaniculatum
+二级
+卵叶桂
+Cinnamomum rigidissimum
+二级
+润楠
+Machilus nanmu
+二级
+舟山新木姜子
+Neolitsea sericea
+二级
+闽楠
+Phoebe bournei
+二级
+浙江楠
+Phoebe chekiangensis
+二级
+细叶楠
+Phoebe hui
+二级
+楠木
+Phoebe zhennan
+二级
+孔药楠
+Sinopora hongkongensis
+二级
+其他常用学名：Syndiclis
+hongkongensis
+泽泻科
+Alismataceae
+二级
+拟花蔺*
+Butomopsis latifolia
+二级
+长喙毛茛泽泻*
+Ranalisma rostratum
+二级
+浮叶慈菇*
+Sagittaria natans
+二级
+水鳖科
+Hydrocharitaceae
+高雄茨藻*
+Najas browniana
+二级
+海菜花属（所有种）*
+Ottelia spp.
+二级
+其他常用中文名：水车前属
+冰沼草科
+Scheuchzeriaceae
+冰沼草*
+Scheuchzeria palustris
+二级
+翡若翠科
+Velloziaceae
+芒苞草
+Acanthochlamys bracteata
+二级
+藜芦科
+Melanthiaceae
+重楼属（所有种，北重楼除外）*
+Paris spp. （excl. P. verticillata）
+二级
+百合科
+Liliaceae
+荞麦叶大百合*
+Cardiocrinum cathayanum
+二级
+贝母属（所有种）*
+Fritillaria spp.
+二级
+秀丽百合*
+Lilium amabile
+二级
+绿花百合*
+Lilium fargesii
+二级
+乳头百合*
+Lilium papilliferum
+二级
+天山百合*
+Lilium tianschanicum
+二级
+青岛百合*
+Lilium tsingtauense
+二级
+郁金香属（所有种）*
+Tulipa spp.
+二级
+兰科
+Orchidaceae
+香花指甲兰
+Aerides odorata
+二级
+金线兰属（所有种）*
+Anoectochilus spp.
+二级
+其他常用中文名：开唇兰属
+白及*
+Bletilla striata
+二级
+美花卷瓣兰
+Bulbophyllum rothschildianum
+二级
+独龙虾脊兰
+Calanthe dulongensis
+二级
+大黄花虾脊兰
+Calanthe striata var. sieboldii
+一级
+其他常用学名： Calanthe sieboldii
+独花兰
+Changnienia amoena
+二级
+大理铠兰
+Corybas taliensis
+二级
+杜鹃兰
+Cremastra appendiculata
+二级
+兰属（所有种，被列入一级保护的美花兰和文山红柱兰除外。兔耳兰未列入名录）
+Cymbidium spp. （excl. C. insigne， C. wenshanense ， C. lancifolium）
+二级
+美花兰
+Cymbidium insigne
+一级
+文山红柱兰
+Cymbidium wenshanense
+一级
+杓兰属（所有种，被列入一级保护的暖地杓兰除外。离萼杓兰未列入名录）
+Cypripedium spp. （excl. C. subtropicum，C. plectrochilum）
+二级
+暖地杓兰
+Cypripedium subtropicum
+一级
+包括Cypripedium singchii
+丹霞兰属（所有种）
+Danxiaorchis spp.
+二级
+石斛属（所有种，被列入一级保护的曲茎石斛和霍山石斛除外）*
+Dendrobium spp. （excl. D. flexicaule， D. huoshanense）
+二级
+曲茎石斛*
+Dendrobium flexicaule
+一级
+霍山石斛*
+Dendrobium huoshanense
+一级
+原天麻*
+Gastrodia angusta
+二级
+天麻*
+Gastrodia elata
+二级
+手参*
+Gymnadenia conopsea
+二级
+西南手参*
+Gymnadenia orchidis
+二级
+血叶兰
+Ludisia discolor
+二级
+兜兰属（所有种，被列入二级保护的带叶兜兰和硬叶兜兰除外）
+Paphiopedilum spp. （excl. P. hirsutissimum， P. micranthum）
+一级
+带叶兜兰
+Paphiopedilum hirsutissimum
+二级
+硬叶兜兰
+Paphiopedilum micranthum
+二级
+海南鹤顶兰
+Phaius hainanensis
+二级
+文山鹤顶兰
+Phaius wenshanensis
+二级
+罗氏蝴蝶兰
+Phalaenopsis lobbii
+二级
+麻栗坡蝴蝶兰
+Phalaenopsis malipoensis
+二级
+华西蝴蝶兰
+Phalaenopsis wilsonii
+二级
+象鼻兰
+Phalaenopsis zhejiangensis
+一级
+独蒜兰属（所有种）
+Pleione spp.
+二级
+火焰兰属（所有种）
+Renanthera spp.
+二级
+钻喙兰
+Rhynchostylis retusa
+二级
+大花万代兰
+Vanda coerulea
+二级
+深圳香荚兰
+Vanilla shenzhenica
+二级
+鸢尾科
+Iridaceae
+水仙花鸢尾*
+Iris narcissiflora
+二级
+天门冬科
+Asparagaceae
+海南龙血树
+Dracaena cambodiana
+二级
+其他常用中文名：柬埔寨龙血树
+剑叶龙血树
+Dracaena cochinchinensis
+二级
+兰花蕉科
+Lowiaceae
+海南兰花蕉
+Orchidantha insularis
+二级
+云南兰花蕉
+Orchidantha yunnanensis
+二级
+姜科
+Zingiberaceae
+海南豆蔻*
+Amomum hainanense
+二级
+宽丝豆蔻*
+Amomum petaloideum
+二级
+其他常用中文名：拟豆蔻；其他常用学名：Paramomum petaloideum
+细莪术*
+Curcuma exigua
+二级
+茴香砂仁
+Etlingera yunnanensis
+二级
+长果姜
+Siliquamomum tonkinense
+二级
+棕榈科
+Arecaceae
+董棕
+Caryota obtusa
+二级
+琼棕
+Chuniophoenix hainanensis
+二级
+矮琼棕
+Chuniophoenix humilis
+二级
+水椰*
+Nypa fruticans
+二级
+小钩叶藤
+Plectocomia microstachys
+二级
+龙棕
+Trachycarpus nanus
+二级
+香蒲科
+Typhaceae
+无柱黑三棱*
+Sparganium hyperboreum
+二级
+其他常用中文名： 北方黑三棱
+禾本科
+Poaceae
+短芒芨芨草*
+Achnatherum breviaristatum
+二级
+沙芦草
+Agropyron mongolicum
+二级
+三刺草
+Aristida triseta
+二级
+山涧草
+Chikusichloa aquatica
+二级
+流苏香竹
+Chimonocalamus fimbriatus
+二级
+莎禾
+Coleanthus subtilis
+二级
+阿拉善披碱草*
+Elymus alashanicus
+二级
+黑紫披碱草*
+Elymus atratus
+二级
+短柄披碱草*
+Elymus brevipes
+二级
+内蒙披碱草*
+Elymus intramongolicus
+二级
+紫芒披碱草*
+Elymus purpuraristatus
+二级
+新疆披碱草*
+Elymus sinkiangensis
+二级
+无芒披碱草
+Elymus sinosubmuticus
+二级
+毛披碱草
+Elymus villifer
+二级
+铁竹
+Ferrocalamus strictus
+一级
+贡山竹
+Gaoligongshania megalothyrsa
+二级
+内蒙古大麦
+Hordeum innermongolicum
+二级
+纪如竹
+Hsuehochloa calcarea
+二级
+水禾*
+Hygroryza aristata
+二级
+青海以礼草
+Kengyilia kokonorica
+二级
+青海固沙草*
+Orinus kokonorica
+二级
+稻属（所有种）*
+Oryza spp.
+二级
+华山新麦草
+Psathyrostachys huashanica
+一级
+三蕊草
+Sinochasea trigyna
+二级
+拟高梁*
+Sorghum propinquum
+二级
+箭叶大油芒
+Spodiopogon sagittifolius
+二级
+中华结缕草*
+Zoysia sinica
+二级
+罂粟科
+Papaveraceae
+石生黄堇
+Corydalis saxicola
+二级
+其他常用中文名：岩黄连
+久治绿绒蒿
+Meconopsis barbiseta
+二级
+红花绿绒蒿
+Meconopsis punicea
+二级
+毛瓣绿绒蒿
+Meconopsis torquata
+二级
+防己科
+Menispermaceae
+古山龙
+Arcangelisia gusanlung
+二级
+藤枣
+Eleutharrhena macrocarpa
+二级
+小檗科
+Berberidaceae
+八角莲属（所有种）
+Dysosma spp.
+二级
+其他常用中文名：鬼臼属
+小叶十大功劳
+Mahonia microphylla
+二级
+靖西十大功劳
+Mahonia subimbricata
+二级
+桃儿七
+Sinopodophyllum hexandrum
+二级
+星叶草科
+Circaeasteraceae
+独叶草
+Kingdonia uniflora
+二级
+毛茛科
+Ranunculaceae
+北京水毛茛*
+Batrachium pekinense
+二级
+槭叶铁线莲*
+Clematis acerifolia
+二级
+含种下等级
+黄连属（所有种）*
+Coptis spp.
+二级
+莲科
+Nelumbonaceae
+莲*
+Nelumbo nucifera
+二级
+昆栏树科
+Trochodendraceae
+水青树
+Tetracentron sinense
+二级
+芍药科
+Paeoniaceae
+芍药属牡丹组（所有种，被列入一级保护的卵叶牡丹和紫斑牡丹除外，牡丹未列入名录）*
+Paeonia sect. Moutan spp. （excl. P. qiui， P. rockii &amp; P. suffruticosa）
+二级
+牡丹为栽培物种，不列入保护植物
+卵叶牡丹*
+Paeonia qiui
+一级
+紫斑牡丹*
+Paeonia rockii
+一级
+白花芍药*
+Paeonia sterniana
+二级
+阿丁枫科
+Altingiaceae
+赤水蕈树
+Altingia multinervis
+二级
+金缕梅科
+Hamamelidaceae
+山铜材
+Chunia bucklandioides
+二级
+长柄双花木
+Disanthus cercidifolius subsp. longipes
+二级
+四药门花
+Loropetalum subcordatum
+二级
+银缕梅
+Parrotia subaequalis
+一级
+连香树科
+Cercidiphyllaceae
+连香树
+Cercidiphyllum japonicum
+二级
+景天科
+Crassulaceae
+长白红景天
+Rhodiola angusta
+二级
+大花红景天
+Rhodiola crenulata
+二级
+长鞭红景天
+Rhodiola fastigiata
+二级
+喜马红景天
+Rhodiola himalensis
+二级
+其他常用中文名：喜马拉雅红景天
+四裂红景天
+Rhodiola quadrifida
+二级
+红景天
+Rhodiola rosea
+二级
+库页红景天
+Rhodiola sachalinensis
+二级
+圣地红景天
+Rhodiola sacra
+二级
+唐古红景天
+Rhodiola tangutica
+二级
+粗茎红景天
+Rhodiola wallichiana
+二级
+云南红景天
+Rhodiola yunnanensis
+二级
+小二仙草科
+Haloragaceae
+乌苏里狐尾藻*
+Myriophyllum ussuriense
+二级
+锁阳科
+Cynomoriaceae
+锁阳*
+Cynomorium songaricum
+二级
+其他常用学名： Cynomorium coccineum subsp. songaricum
+葡萄科
+Vitaceae
+百花山葡萄
+Vitis baihuashanensis
+一级
+浙江蘡薁
+Vitis zhejiang-adstricta
+二级
+蒺藜科
+Zygophyllaceae
+四合木
+Tetraena mongolica
+二级
+豆科
+Fabaceae
+沙冬青
+Ammopiptanthus mongolicus
+二级
+棋子豆
+Archidendron robinsonii
+二级
+紫荆叶羊蹄甲
+Bauhinia cercidifolia
+二级
+丽豆*
+Calophaca sinica
+二级
+黑黄檀
+Dalbergia cultrata
+二级
+海南黄檀
+Dalbergia hainanensis
+二级
+降香
+Dalbergia odorifera
+二级
+其他常用中文名： 降香黄檀
+卵叶黄檀
+Dalbergia ovata
+二级
+格木
+Erythrophleum fordii
+二级
+山豆根*
+Euchresta japonica
+二级
+绒毛皂荚
+Gleditsia japonica var. velutina
+一级
+野大豆*
+Glycine soja
+二级
+其他常用学名： Glycine max subsp. soja
+烟豆*
+Glycine tabacina
+二级
+短绒野大豆*
+Glycine tomentella
+二级
+胀果甘草
+Glycyrrhiza inflata
+二级
+甘草
+Glycyrrhiza uralensis
+二级
+其他常用中文名：乌拉尔甘草
+浙江马鞍树
+Maackia chekiangensis
+二级
+红豆属（所有种，被列入一级保护的小叶红豆除外。）
+Ormosia spp. （excl. O. microphylla）
+二级
+小叶红豆
+Ormosia microphylla
+一级
+冬麻豆属（所有种）
+Salweenia spp.
+二级
+油楠
+Sindora glabra
+二级
+越南槐
+Sophora tonkinensis
+二级
+其他常用中文名： 广豆根
+海人树科
+Surianaceae
+海人树
+Suriana maritima
+二级
+蔷薇科
+Rosaceae
+太行花
+Geum rupestre
+二级
+其他常用学名： Taihangia rupestris
+山楂海棠*
+Malus komarovii
+二级
+丽江山荆子*
+Malus rockii
+二级
+新疆野苹果*
+Malus sieversii
+二级
+锡金海棠*
+Malus sikkimensis
+二级
+绵刺*
+Potaninia mongolica
+二级
+新疆野杏*
+Prunus armeniaca
+二级
+其他常用学名： Armeniaca vulgaris
+新疆樱桃李*
+Prunus cerasifera
+二级
+其他常用中文名： 樱桃李
+甘肃桃*
+Prunus kansuensis
+二级
+其他常用学名： Amygdaluskansuensis
+蒙古扁桃*
+Prunus mongolica
+二级
+其他常用学名： Amygdalusmongolica
+光核桃*
+Prunus mira
+二级
+其他常用学名： Amygdalus mira
+矮扁桃（野巴旦，野扁桃）*
+Prunus nana
+二级
+其他常用学名： Amygdalus nana
+政和杏*
+Prunus zhengheensis
+二级
+其他常用学名： Armeniaca zhengheensis
+银粉蔷薇
+Rosa anemoniflora
+二级
+小檗叶蔷薇
+Rosa berberifolia
+二级
+单瓣月季花
+Rosa chinensis var. spontanea
+二级
+广东蔷薇
+Rosa kwangtungensis
+二级
+亮叶月季
+Rosa lucidissima
+二级
+大花香水月季
+Rosa odorata var. gigantea
+二级
+中甸刺玫
+Rosa praelucens
+二级
+玫瑰
+Rosa rugosa
+二级
+胡颓子科
+Elaeagnaceae
+翅果油树
+Elaeagnus mollis
+二级
+鼠李科
+Rhamnaceae
+小勾儿茶
+Berchemiella wilsonii
+二级
+榆科
+Ulmaceae
+长序榆
+Ulmus elongata
+二级
+大叶榉树
+Zelkova schneideriana
+二级
+桑科
+Moraceae
+南川木波罗
+Artocarpus nanchuanensis
+二级
+奶桑
+Morus macroura
+二级
+川桑*
+Morus notabilis
+二级
+长穗桑*
+Morus wittiorum
+二级
+荨麻科
+Urticaceae
+光叶苎麻*
+Boehmeria leiophylla
+二级
+Flora of China将本种处理为腋球苎麻Boehmeria glomerulifera
+长圆苎麻*
+Boehmeria oblongifolia
+二级
+Flora of China将本种处理为腋球苎麻Boehmeria glomerulifera
+壳斗科
+Fagaceae
+华南锥
+Castanopsis concinna
+二级
+其他常用中文名：华南栲
+西畴青冈
+Cyclobalanopsis sichourensis
+二级
+其他常用学名：Quercus
+sichourensis
+台湾水青冈
+Fagus hayatae
+二级
+三棱栎
+Formanodendron doichangensis
+二级
+霸王栎
+Quercus bawanglingensis
+二级
+其他常用中文名：坝王栎
+尖叶栎
+Quercus oxyphylla
+二级
+胡桃科
+Juglandaceae
+喙核桃
+Annamocarya sinensis
+二级
+贵州山核桃
+Carya kweichowensis
+二级
+桦木科
+Betulaceae
+普陀鹅耳枥
+Carpinus putoensis
+一级
+天台鹅耳枥
+Carpinus tientaiensis
+二级
+天目铁木
+Ostrya rehderiana
+一级
+葫芦科
+Cucurbitaceae
+野黄瓜*
+Cucumis sativus var. xishuangbannanensis
+二级
+四数木科
+Tetramelaceae
+四数木
+Tetrameles nudiflora
+二级
+秋海棠科
+Begoniaceae
+蛛网脉秋海棠*
+Begonia arachnoidea
+二级
+阳春秋海棠*
+Begonia coptidifolia
+二级
+黑峰秋海棠*
+Begonia ferox
+二级
+其他常用中文名：刺秋海棠
+古林箐秋海棠*
+Begonia gulinqingensis
+二级
+古龙山秋海棠*
+Begonia gulongshanensis
+二级
+海南秋海棠*
+Begonia hainanensis
+二级
+香港秋海棠*
+Begonia hongkongensis
+二级
+卫矛科
+Celastraceae
+永瓣藤
+Monimopetalum chinense
+二级
+斜翼
+Plagiopteron suaveolens
+二级
+安神木科
+Centroplacaceae
+膝柄木
+Bhesa robusta
+一级
+金莲木科
+Ochnaceae
+合柱金莲木
+Sauvagesia rhodoleuca
+二级
+川苔草科
+Podostemaceae
+川苔草属（所有种）*
+Cladopus spp.
+二级
+川藻属（所有种）*
+Dalzellia spp.
+二级
+水石衣*
+Hydrobryum griffithii
+二级
+藤黄科
+Clusiaceae
+金丝李
+Garcinia paucinervis
+二级
+双籽藤黄*
+Garcinia tetralata
+二级
+青钟麻科
+Achariaceae
+海南大风子
+Hydnocarpus hainanensis
+二级
+杨柳科
+Salicaceae
+额河杨
+Populus × irtyschensis
+二级
+发表时名称： Populus ×jrtyschensis
+大花草科
+Rafflesiaceae
+寄生花
+Sapria himalayana
+二级
+大戟科
+Euphorbiaceae
+东京桐
+Deutzianthus tonkinensis
+二级
+使君子科
+Combretaceae
+萼翅藤
+Getonia floribunda
+一级
+红榄李*
+Lumnitzera littorea
+一级
+千果榄仁
+Terminalia myriocarpa
+二级
+千屈菜科
+Lythraceae
+小果紫薇
+Lagerstroemia minuticarpa
+二级
+毛紫薇
+Lagerstroemia villosa
+二级
+水芫花
+Pemphis acidula
+二级
+细果野菱（野菱）*
+Trapa incisa
+二级
+野牡丹科
+Melastomataceae
+虎颜花*
+Tigridiopalma magnifica
+二级
+漆树科
+Anacardiaceae
+林生杧果
+Mangifera sylvatica
+二级
+无患子科
+Sapindaceae
+梓叶槭
+Acer amplum subsp. catalpifolium
+二级
+庙台槭
+Acer miaotaiense
+二级
+羊角槭并入本种
+五小叶槭
+Acer pentaphyllum
+二级
+其他常用中文名：五小叶枫
+漾濞槭
+Acer yangbiense
+二级
+其他常用中文名：漾濞枫
+龙眼*
+Dimocarpus longan
+二级
+云南金钱槭
+Dipteronia dyerana
+二级
+伞花木
+Eurycorymbus cavaleriei
+二级
+掌叶木
+Handeliodendron bodinieri
+二级
+爪耳木
+Lepisanthes unilocularis
+二级
+野生荔枝*
+Litchi chinensis var. euspontanea
+二级
+Flora of China使用名称Litchi chinensis
+韶子*
+Nephelium chryseum
+二级
+海南假韶子
+Paranephelium hainanense
+二级
+芸香科
+Rutaceae
+宜昌橙*
+Citrus cavaleriei
+二级
+其他常用学名：Citrus ichangensis
+道县野桔*
+Citrus daoxianensis
+二级
+Flora of China 使 用 名 称： 柑橘 Citrus reticulata
+红河橙*
+Citrus hongheensis
+二级
+Flora of China使用名称：宜昌橙 Citrus cavaleriei
+莽山野桔*
+Citrus mangshanensis
+二级
+Flora of China使用名称：柑橘 Citrus reticulata
+山橘*
+Fortunella hindsii
+二级
+Flora of China使用名称：金柑 Citrus japonica
+金豆*
+Fortunella venosa
+二级
+Flora of China使用名称：金柑 Citrus japonica
+黄檗
+Phellodendron amurense
+二级
+其他常用中文名：黄波椤
+川黄檗
+Phellodendron chinense
+二级
+富民枳*
+Poncirus × polyandra
+二级
+Flora of China使用名称Citrus × polytrifolia
+楝科
+Meliaceae
+望谟崖摩
+Aglaia lawii
+二级
+红椿
+Toona ciliata
+二级
+毛红椿并入本种
+木果楝
+Xylocarpus granatum
+二级
+锦葵科
+Malvaceae
+柄翅果
+Burretiodendron esquirolii
+二级
+滇桐
+Craigia yunnanensis
+二级
+海南椴
+Diplodiscus trichospermus
+二级
+蚬木
+Excentrodendron tonkinense
+二级
+广西火桐
+Erythropsis kwangsiensis
+一级
+其他常用学名：Firmiana kwangsiensis
+梧桐属（所有种，梧桐除外）
+Firmiana spp. （excl. F. simplex）
+二级
+蝴蝶树
+Heritiera parvifolia
+二级
+平当树
+Paradombeya sinensis
+二级
+景东翅子树
+Pterospermum kingtungense
+二级
+勐仑翅子树
+Pterospermum menglunense
+二级
+粗齿梭罗
+Reevesia rotundifolia
+二级
+紫椴
+Tilia amurensis
+二级
+瑞香科
+Thymelaeaceae
+土沉香
+Aquilaria sinensis
+二级
+云南沉香
+Aquilaria yunnanensis
+二级
+半日花科
+Cistaceae
+半日花*
+Helianthemum songaricum
+二级
+龙脑香科
+Dipterocarpaceae
+东京龙脑香
+Dipterocarpus retusus
+一级
+狭叶坡垒
+Hopea chinensis
+二级
+多毛坡垒并入本种
+坡垒
+Hopea hainanensis
+一级
+无翼坡垒（铁凌）
+Hopea reticulata
+二级
+西藏坡垒
+Hopea shingkeng
+二级
+望天树
+Parashorea chinensis
+一级
+云南娑罗双
+Shorea assamica
+一级
+广西青梅
+Vatica guangxiensis
+一级
+青梅
+Vatica mangachapoi
+二级
+叠珠树科
+Akaniaceae
+伯乐树（钟萼木）
+Bretschneidera sinensis
+二级
+铁青树科
+Olacaceae
+蒜头果
+Malania oleifera
+二级
+瓣鳞花科
+Frankeniaceae
+瓣鳞花
+Frankenia pulverulenta
+二级
+柽柳科
+Tamaricaceae
+疏花水柏枝
+Myricaria laxiflora
+二级
+蓼科
+Polygonaceae
+金荞麦*
+Fagopyrum dibotrys
+二级
+其他常用中文名：金荞
+茅膏菜科
+Droseraceae
+貉藻*
+Aldrovanda vesiculosa
+一级
+石竹科
+Caryophyllaceae
+金铁锁
+Psammosilene tunicoides
+二级
+苋科
+Amaranthaceae
+苞藜*
+Baolia bracteata
+二级
+阿拉善单刺蓬*
+Cornulaca alaschanica
+二级
+蓝果树科
+Nyssaceae
+珙桐
+Davidia involucrata
+一级
+含种下等级，光叶珙桐并入本种
+云南蓝果树
+Nyssa yunnanensis
+一级
+绣球花科
+Hydrangeaceae
+黄山梅
+Kirengeshoma palmata
+二级
+蛛网萼
+Platycrater arguta
+二级
+五列木科
+Pentaphylacaceae
+猪血木
+Euryodendron excelsum
+一级
+山榄科
+Sapotaceae
+滇藏榄
+Diploknema yunnanensis
+一级
+其他常用中文名：云南藏榄
+海南紫荆木
+Madhuca hainanensis
+二级
+紫荆木
+Madhuca pasquieri
+二级
+柿树科
+Ebenaceae
+小萼柿*
+Diospyros minutisepala
+二级
+川柿*
+Diospyros sutchuensis
+二级
+报春花科
+Primulaceae
+羽叶点地梅*
+Pomatosace filicula
+二级
+山茶科
+Theaceae
+圆籽荷
+Apterosperma oblata
+二级
+杜鹃红山茶
+Camellia azalea
+一级
+其他常用中文名：杜鹃叶山茶
+山茶属金花茶组（所有种）
+Camellia sect. Chrysantha spp.
+二级
+山茶属茶组（所有种， 大叶茶、大理茶除外）*
+Camellia sect. Thea spp. （excl. C. sinensis var. assamica， C. taliensis）
+二级
+大叶茶
+Camellia sinensis var. assamica
+二级
+其他常用中文名：普洱茶
+大理茶
+Camellia taliensis
+二级
+安息香科
+Styracaceae
+秤锤树属（所有种）
+Sinojackia spp.
+二级
+猕猴桃科
+Actinidiaceae
+软枣猕猴桃*
+Actinidia arguta
+二级
+中华猕猴桃*
+Actinidia chinensis
+二级
+金花猕猴桃*
+Actinidia chrysantha
+二级
+条叶猕猴桃*
+Actinidia fortunatii
+二级
+大籽猕猴桃*
+Actinidia macrosperma
+二级
+杜鹃花科
+Ericaceae
+兴安杜鹃
+Rhododendron dauricum
+二级
+朱红大杜鹃
+Rhododendron griersonianum
+二级
+华顶杜鹃
+Rhododendron huadingense
+二级
+井冈山杜鹃
+Rhododendron jingangshanicum
+二级
+江西杜鹃
+Rhododendron kiangsiense
+二级
+尾叶杜鹃
+Rhododendron urophyllum
+二级
+圆叶杜鹃
+Rhododendron williamsianum
+二级
+茜草科
+Rubiaceae
+绣球茜
+Dunnia sinensis
+二级
+香果树
+Emmenopterys henryi
+二级
+巴戟天
+Morinda officinalis
+二级
+滇南新乌檀
+Neonauclea tsaiana
+二级
+龙胆科
+Gentianaceae
+辐花
+Lomatogoniopsis alpina
+二级
+夹竹桃科
+Apocynaceae
+驼峰藤
+Merrillanthus hainanensis
+二级
+富宁藤
+Parepigynum funingense
+二级
+紫草科
+Boraginaceae
+新疆紫草*
+Arnebia euchroma
+二级
+其他常用中文名：软紫草
+橙花破布木
+Cordia subcordata
+二级
+茄科
+Solanaceae
+黑果枸杞*
+Lycium ruthenicum
+二级
+云南枸杞*
+Lycium yunnanense
+二级
+木犀科
+Oleaceae
+水曲柳
+Fraxinus mandschurica
+二级
+其他常用学名：Fraxinus
+mandshurica
+天山梣
+Fraxinus sogdiana
+二级
+毛柄木犀
+Osmanthus pubipedicellatus
+二级
+毛木犀
+Osmanthus venosus
+二级
+苦苣苔科
+Gesneriaceae
+瑶山苣苔
+Dayaoshania cotinifolia
+二级
+秦岭石蝴蝶
+Petrocosmea qinlingensis
+二级
+报春苣苔
+Primulina tabacum
+二级
+辐花苣苔
+Thamnocharis esquirolii
+一级
+车前科
+Plantaginaceae
+胡黄连
+Neopicrorhiza scrophulariiflora
+二级
+丰都车前*
+Plantago fengdouensis
+二级
+玄参科
+Scrophulariaceae
+长柱玄参*
+Scrophularia stylosa
+二级
+狸藻科
+Lentibulariaceae
+盾鳞狸藻*
+Utricularia punctata
+二级
+唇形科
+Lamiaceae
+苦梓
+Gmelina hainanensis
+二级
+其他常用中文名：海南石梓
+保亭花
+Wenchengia alternifolia
+二级
+列当科
+Orobanchaceae
+草苁蓉*
+Boschniakia rossica
+二级
+肉苁蓉*
+Cistanche deserticola
+二级
+管花肉苁蓉*
+Cistanche mongolica
+二级
+其他常用学名：Cistanche tubulosa
+崖白菜
+Triaenophora rupestris
+二级
+其他常用中文名：呆白菜
+冬青科
+Aquifoliaceae
+扣树
+Ilex kaushue
+二级
+桔梗科
+Campanulaceae
+刺萼参*
+Echinocodon draco
+二级
+菊科
+Asteraceae
+白菊木
+Leucomeris decora
+二级
+巴朗山雪莲
+Saussurea balangshanensis
+二级
+雪兔子
+Saussurea gossipiphora
+二级
+雪莲
+Saussurea involucrata
+二级
+其他常用中文名：雪莲花
+绵头雪兔子
+Saussurea laniceps
+二级
+水母雪兔子
+Saussurea medusa
+二级
+阿尔泰雪莲
+Saussurea orgaadayi
+二级
+革苞菊
+Tugarinovia mongolica
+二级
+忍冬科
+Caprifoliaceae
+七子花
+Heptacodium miconioides
+二级
+丁香叶忍冬
+Lonicera oblata
+二级
+匙叶甘松
+Nardostachys jatamansi
+二级
+其他常用中文名：甘松；
+其他常用学名：Nardostachyschinensis， N. grandiflora
+五加科
+Araliaceae
+人参属（所有种）*
+Panax spp.
+二级
+华参*
+Sinopanax formosanus
+二级
+伞形科
+Apiaceae
+山茴香*
+Carlesia sinensis
+二级
+明党参*
+Changium smyrnioides
+二级
+川明参*
+Chuanminshen violaceum
+二级
+阜康阿魏*
+Ferula fukanensis
+二级
+麝香阿魏*
+Ferula moschata
+二级
+新疆阿魏*
+Ferula sinkiangensis
+二级
+珊瑚菜（北沙参）*
+Glehnia littoralis
+二级
+藻类 Algae
+马尾藻科
+Sargassaceae
+硇洲马尾藻*
+Sargassum naozhouense
+二级
+黑叶马尾藻*
+Sargassum nigrifolioides
+二级
+墨角藻科
+Fucaceae
+鹿角菜*
+Silvetia siliquosa
+二级
+红翎菜科
+Solieriaceae
+珍珠麒麟菜*
+Eucheuma okamurai
+一级
+耳突卡帕藻*
+Kappaphycus cottonii
+二级
+念珠藻科
+Nostocaceae
+发菜
+Nostoc flagelliforme
+一级
+真菌 Eumycophyta
+线虫草科
+Ophiocordycipitaceae
+虫草（冬虫夏草）
+Cordyceps sinensis
+二级
+口蘑科（白蘑科）
+Tricholomataceae
+蒙古口蘑*
+Tricholoma mongolicum
+二级
+松口蘑（松茸）*
+Tricholoma matsutake
+二级
+块菌科
+Tuberaceae
+中华夏块菌*
+Tuber sinoaestivum
+二级
+注：
+1.标 * 者归农业农村主管部门分工管理，其余归林业和草原主管部门分工管理。
+2.此《名录》以《中国生物物种名录（植物卷）》为物种名称的主要参考文献，同时参考最新的分类学和系统学研究成果。
+3.Flora of China 指《中国植物志（英文版）》。
+4.本《名录》所保护的对象仅指《中华人民共和国野生植物保护条例》定义的野生植物。</t>
   </si>
   <si>
     <t>群众环保意识达到70后环保局工作人员会送给图书馆前台</t>
@@ -4855,7 +5980,116 @@
     <t>动物</t>
   </si>
   <si>
+    <t>林麝</t>
+  </si>
+  <si>
+    <t>林麝，是偶蹄目麝科麝属中体型最小的一种哺乳动物，又称獐子。体长约70厘米。雄麝上犬齿发达，向后下方弯曲，伸出唇外；腹部生殖器前有麝香囊，尾粗短，尾脂腺发达。四肢细长，后肢长于前肢；体毛粗硬色深，呈橄榄褐色，并杂以橘红色；下颌、喉部、颈下以至前胸为界限分明的白色或橘黄色区，臀部毛色近黑色，成体不具斑点。因香远射，故名麝香；麝似獐而小，黑色，故俗称香獐。
+林麝在中国主要分布于四川、甘肃、云南等地，栖息于海拔800～2500米的高山针阔叶混交林或阔叶落叶林中，少数游荡于中低山灌木丛地带。喜早晚活动，无固定场所。能敏捷地在险峻的悬崖峭壁和雪地行走，善于跳跃；视觉与听觉灵敏；性情孤僻、胆怯。以植物类食物为食，诸如青草、嫩枝、树芽、叶子，有时也食苔藓、地衣、野果等。10月至翌年2月发情交配，妊娠期5～6个月，每胎产2仔，偶有1或3仔现象，哺乳期3个月，1年性成熟。人工饲养的林麝寿命可达13年。
+由于人为猎杀取麝致使野生林麝资源枯竭，林麝已被列入《世界自然保护联盟濒危物种红色名录》中，属于濒危（EN）保护等级。同时也被列入《濒危野生动植物国际贸易公约》(CITES)附录I 和《中国国家重点保护野生动物名录》中为一级保护动物。</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%9E%97%E9%BA%9D/1663648?fr=ge_ala</t>
+  </si>
+  <si>
+    <t>黑叶猴</t>
+  </si>
+  <si>
+    <t>黑叶猴是灵长目猴科乌叶猴属哺乳动物，又称乌猿，乌叶猴，岩蛛猴，猿吊猴，黑蛛猴等。体长50—60厘米，尾长79—86厘米，体形纤瘦，四肢细长，头小尾巴长；体毛长而厚密，有光泽。头顶有黑色直立的毛冠；两颊至耳基部有白毛；成体全身乌黑色；手、足具乌黑扁平指（趾）甲；尾尖端白色，无颊囊，臀部有两小块白色胼胝。
+黑叶猴分布于中国南部及越南、老挝等局部地区。在中国主要分布于广西西南部、西部的左、右江和红水河流域，贵州的东北和西南部亦有零星分布。栖息于有常绿阔叶林分布的亚热带石灰岩丘陵山地及河谷两岸，主要在白天活动，跳跃和攀缘能力很强，能在大树和陡峭的岩壁上行动自如。杂食性，以植物嫩叶、芽、花、果实等为食，也吃少量昆虫。通常在2—3月交配，妊娠期160天左右，8—9月产仔。成年雌猴一般每年产1胎，极少见2仔。
+由于森林砍伐和农耕地开垦，黑叶猴的栖息生境急剧减少和破碎化，分布范围不断缩小，再加上非法的捕杀，种群数量急剧减少。现为中国国家一级重点保护野生动物。被《世界自然保护联盟濒危物种红色名录》（IUCN）列为濒危（EN）物种。</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BB%91%E5%8F%B6%E7%8C%B4/366681?fr=ge_ala</t>
+  </si>
+  <si>
+    <t>黄喉貂</t>
+  </si>
+  <si>
+    <t>黄喉貂，是食肉目鼬科陆栖食肉类动物，又名青鼬、密狗、黄猺。体长小而轻；吻尖耳大；四肢短；爪发达；尾圆柱状；冬季毛被色泽鲜艳，吻端至颈背部黑褐色，下颏白色并向后延伸至耳下，喉部白色或淡黄色；体背部橙黄色或黄褐色；在体中部逐渐过渡为黑褐色，胸部橙黄色或黄褐色；腹部淡黄褐色或浅黄白色；头部、后肢及尾黑褐色。
+黄喉貂分布于中国四川、广西等省区，贵州各县市均有分布；亚洲东部也有分布，栖息生境多样，可见于低海拔松林、栎树林，高海拔的针叶林、雪松林等；昼行性，多在晨昏活动，跳跃行走。黄喉貂主要捕食林麝、小麂、幼小的野猪、各种鼠类、兔子、鸟类及大型昆虫，春季繁殖，每胎2仔；寿命14年。
+黄喉貂是一种生活在森林地区的动物，因森林面积减少，分布区域碎片化，导致整体的数量减少。现已被中国列入《国家II级重点保护野生动物》。黄喉貂除捕食松鼠等毛皮兽外，还袭击林麝和毛冠鹿等珍贵动物，故在自然界中尚有一定的危害。</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BB%84%E5%96%89%E8%B2%82/2803264?fr=ge_ala</t>
+  </si>
+  <si>
+    <t>中华秋沙鸭</t>
+  </si>
+  <si>
+    <t>中华秋沙鸭，是雁形目鸭科秋沙鸭属鸟类，无亚种分化。羽冠长而明显，成双冠状，嘴长而窄，呈红色。雌雄异色，雄鸟头、上背及肩羽黑色，下背、腰和尾上覆羽白色，翼镜白色，下体白色，两胁具黑色鳞状纹；雌鸟头和颈棕褐色，具有羽冠。喉部淡棕色，上体灰褐色，胸部白色杂以褐色鳞斑。因身上两侧有鱼鳞斑，头上长着双冠羽被称鳞肋秋沙鸭，又因头顶硬毛组成的羽冠像满清官员头上的花翎。
+中华秋沙鸭是中国的特有的野鸭种类。 繁殖在中国东北部的黑龙江、吉林、内蒙古地区、俄罗斯东南部、朝鲜，大多数越冬于中国中部和南部地区，少数越冬于日本、韩国、缅甸和泰国，零星个体越冬于俄罗斯东南部和朝鲜。越冬期常集小群栖息于山间河流、水库湖泊中。主食鱼类、石蛾科昆虫。中华秋沙鸭的飞行和游泳能力都很强，能够每年长途跋涉数千千米，从东北飞到江南，也能够较长时间水下捕鱼捉虾或啄食水草。除迁徙时集合成大群，平时都以家族方式活动。一般春季交配，不筑巢，只在树丛中寻找树洞，雌鸭通常1天产1枚，每窝8-14枚，平均10枚左右。
+中华秋沙鸭是中国最古老的一种野鸭，在地球上已经生存1000多万年，成为如活化石般孑遗动物。中华秋沙鸭的栖息繁殖地现已呈孤岛状，破碎化严重，中国能够确认的繁殖地主要有两处：一处是吉林的长白山，另一处是小兴安岭林区。中华秋沙鸭已被列入《世界自然保护联盟濒危物种红色名录》为EN(濒危)等级。同时也被中国列入《国家重点保护野生动物名录》中为一级保护等级。</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E7%A7%8B%E6%B2%99%E9%B8%AD/315346?fr=ge_ala</t>
+  </si>
+  <si>
+    <t>黑熊</t>
+  </si>
+  <si>
+    <t>黑熊（学名：Ursus thibetanus）：是食肉目、熊科动物。共有7个亚种。雌性体长110-150厘米，雄性体长120-189厘米；尾长小于12厘米；肩高70-100厘米。雌性体重40-140千克，雄性体重60-200千克。体毛黑亮而长，下颏白色，胸部有一块"V"字形白斑。头圆，耳大，眼小，吻短而尖，鼻端裸露，足垫厚实，前后足具5趾，爪尖锐不能伸缩。身体粗壮。
+栖息于山地森林，一般在夜晚活动，白天在树洞或岩洞中睡觉，善爬树，游泳；能直立行走。视觉差，嗅觉、听觉灵敏；食性较杂，以植物叶、芽、果实、种子为食，有时也吃昆虫、鸟卵和小型兽类。北方的黑熊有冬眠习性，整个冬季蛰伏洞中，不吃不动，处于半睡眠状态，至翌年3-4月份出洞活动。夏季交配，怀孕期7个月，每胎1-3仔。分布于欧亚大陆的东部、中国和日本等地的森林地带。</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BB%91%E7%86%8A/84619?fr=ge_ala</t>
+  </si>
+  <si>
     <t>植物</t>
+  </si>
+  <si>
+    <t>荷叶铁线蕨</t>
+  </si>
+  <si>
+    <t>荷叶铁线蕨（Adiantum nelumboides X. C. Zhang ）科属蕨类植物门，凤尾蕨科、铁线蕨属，根茎短而直立，叶簇生，叶片圆形活圆肾型，叶片边缘有圆钝齿牙，下面有稀疏的棕色长软毛，囊群圆形或长方形，沿叶边分布。
+荷叶铁线蕨仅发现于四川省万县和石柱县局部地区，已濒临灭绝。适于温暖、湿润无荫的岩面薄土层、石缝或草丛中，喜中性偏碱土。早春发芽，7月形成孢子群，9月孢子成熟，可用分株或孢子繁殖，是中国铁线蕨科最原始的类型。
+荷叶铁线蕨可全草入药，具有清热解毒、利尿通淋的功效，还可治疗尿路结石、中耳炎等症状，还可做盆栽观赏。荷叶铁线蕨是肾叶铁线蕨的一个地理变种，为亚洲铁线蕨科植物中唯一的单叶型植物，中国将其列入了三峡工程生态补偿项目，于2002年启动了抢救性的工作，在重庆、湖北、武汉建设了8个保护基地。荷叶铁线蕨又称“荷叶金钱草”，优雅多姿，馥郁芬芳，被世人称为“东方之珠”。在庭院可作为珍稀观叶植物，亦适于北方室内栽培观赏。</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%8D%B7%E5%8F%B6%E9%93%81%E7%BA%BF%E8%95%A8/797950?fr=ge_ala</t>
+  </si>
+  <si>
+    <t>崖柏</t>
+  </si>
+  <si>
+    <t>崖柏（Thuja sutchuenensis Franch.），是柏科崖柏属的常绿灌木或乔木植物。崖柏枝条密，小枝扁，叶鳞形，生于小枝中央的鳞叶斜方状卵形，先端纯生于小枝侧面的鳞叶船形，两面均为绿色。雌雄同株异枝，球花着生于枝端，雄球花圆形，淡红或淡黄色：雌球花很小，绿色或带紫色；成熟球果单生，卵形或长圆形。崖柏因生长在悬崖峭壁上，故而得名“崖柏”。 
+崖柏数量稀少，为濒危植物。于1999年在重庆大巴山地区发现少量植株，后又在雪宝山自然保护区、四川省宣汉县等地发现，禁止采伐。1984年公布的第一批《中国珍稀濒危保护植物名录》将崖柏定为国家二级重点保护野生植物，并于2021年9月调整为国家一级保护野生植物，列入《世界自然保护联盟濒危物种红色名录》——濒危（EN）。崖柏生长于海拔700-2100米的地区，崖柏属于阳性树，稍耐阴，耐瘠薄干燥土壤，忌积水，喜空气湿润和钙质土壤，不耐酸性土和盐土；要求气温适中；由于其生存条件十分苛刻尚未有人工引种栽培。
+崖柏可用于根雕、摆件底座、枕头、佛珠等，具有一定的收藏价值。《本草纲目》中“人食之而体轻，长期服用，使人润泽美色，耳聪目明，不饥不老，轻身延年”记载了崖柏的药用价值。因柏与百谐音，佩戴崖柏手串寓意着长命百岁。由于崖柏长速速度极慢，一年才长0.01毫米，是稀有植物，是世界“活化石”物种之一，也被当作长寿的象征。</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%B4%96%E6%9F%8F/2481806?fr=ge_ala</t>
+  </si>
+  <si>
+    <t>八角莲</t>
+  </si>
+  <si>
+    <t>八角莲（Dysosma versipellis (Hance) M. Cheng）小檗科鬼臼属的多年生草本。植株高40~150厘米；根状茎直立，不分枝，无毛，淡绿色；叶互生，薄纸质，呈盾状，叶脉明显隆起，边缘有细齿；花深红色，5~8朵簇生于叶下方，下垂，花瓣呈勺状倒卵形，无毛；子房呈椭圆形；浆果呈椭圆形，种子多数；花期3~6月；果期5~9月。
+八角莲原产于中国，分布于湖南、湖北、浙江、江西、安徽、广东、广西、云南、贵州、四川、河南、陕西等地。 喜欢温暖、湿润的环境，极耐阴，怕阳光直射，不耐干旱，有很强的耐寒性。适合生长于肥沃疏松、排水良好、富含腐殖质的酸性土壤。在《世界自然保护联盟濒危物种红色名录》中属于易危（VU），是国家二级重点保护野生植物。人工繁殖时常采用分株或播种繁殖法。
+据清代《本草纲目拾遗》记载，八角莲能“解蛇毒，治痈毒”，“此药性热力猛，有毒，咀之味麻，虽壮实人亦宜少用，服药后，忌鱼腥、猪、羊、牛、马等肉，犯之令人癫狂，惟白莱菔可解”。其根茎可入药，用于治疗小儿支气管炎、毒蛇咬伤、跌打损伤。八角莲是耐阴观叶花卉。</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%85%AB%E8%A7%92%E8%8E%B2/546626?fr=ge_ala</t>
+  </si>
+  <si>
+    <t>独花兰</t>
+  </si>
+  <si>
+    <t>独花兰（Changnienia amoena S. S. Chien）是兰科独花兰属地生草本植物。假鳞茎近椭圆或宽卵球形，淡黄白色，被膜质鞘；叶宽卵状椭圆形至宽椭圆形，先端急尖或短渐尖，基部圆形或近截形，背面紫红色；花白色，带肉红或淡紫色晕，唇瓣有紫红色斑点，花瓣窄倒卵状披针形；花期3-4月；果期5-8月。独花兰为多年生草本植物，开花时通常只有一朵花，故名。
+独花兰产自陕西、江苏、安徽、浙江、江西、湖北、湖南和四川等地。生于海拔400米-1800米的疏林下腐殖质丰富的土壤上或沿山谷荫蔽的地方，分布于中国武隆、城口、巫山、兴山、巴东等区县。独花兰适合多云雾、相对湿度大、雨量充沛的温凉小气候区域，属耐阴性草本植物，适于在密林中生长。独花兰多为分株法繁殖。
+独花兰是中国特有单种属植物，不仅对兰科植物系统发育研究有一定的学术价值，同时也是珍贵的药用植物和潜在可开发的优良野生花卉资源，为国家二级珍稀濒危植物。野生独花兰植株矮小，而仡大艳丽，形态美观，具有较高的观赏性，是珍贵、优良的盆栽野生花卉种质资源；全草入药，是治疗咳嗽、湿疹疮毒、疥癣与蛇伤等方面的良药。</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%8B%AC%E8%8A%B1%E5%85%B0/8505163?fr=ge_ala</t>
+  </si>
+  <si>
+    <t>细叶楠</t>
+  </si>
+  <si>
+    <t>细叶楠（Phoebe hui W. C. Cheng ex Yen C. Yang）是樟科楠属的大乔木。树皮暗灰色；新、老枝均纤细，新枝有棱，初时密被灰白色或灰褐色柔毛，后毛渐脱落；叶革质，椭圆形、椭圆状倒披针形或椭圆状披针形，中脉细，上面下陷，侧脉极纤细；圆锥花序生新枝上部，花小、纤弱且在顶端分枝，被柔毛，花被裂片卵形，两面密被灰白色长柔毛；果椭圆形，果梗不增粗；花期4-5月，果期8-9月。
+细叶楠主要分布于中国陕西南部、四川及云南东北部等地。性喜光，喜温暖、湿润的气候，根系发达，喜土层深厚、排水良好、微酸性的红黄土壤，对中性土壤也能适应。细叶楠在《世界自然保护联盟濒危物种红色名录》中属于近危（NT）。一般繁殖方式为播种繁殖。
+《浙江药用植物志》中记载细叶楠：“苦，微温，有小毒。”味幸、苦，性微温，具有活血，散瘀，止痢的功效，主治跌打损伤和细菌性痢疾。因其木材坚硬致密，不翘不裂，不易腐朽，削面光滑美观，芳香而有光泽，为上等建筑、造船、家具、雕刻和精密模具的优良用材，其枝叶繁茂，树姿挺拔秀丽，树冠广阔，绿荫效果良好，也可作庭园风景树，绿荫树和行道树。</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%BB%86%E5%8F%B6%E6%A5%A0/1629798?fr=ge_ala</t>
   </si>
   <si>
     <t>序幕</t>
@@ -4992,6 +6226,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5045,14 +6287,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5603,10 +6837,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5615,19 +6849,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5639,7 +6873,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5660,13 +6894,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -5678,10 +6912,10 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5696,56 +6930,56 @@
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5764,6 +6998,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5782,6 +7019,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5803,17 +7052,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5821,77 +7076,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -6286,34 +7529,34 @@
   <sheetPr/>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="5" width="15.7777777777778" style="4" customWidth="1"/>
-    <col min="7" max="12" width="15.7777777777778" style="42" customWidth="1"/>
+    <col min="7" max="12" width="15.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="18"/>
-      <c r="G1" s="45" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="22"/>
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="42" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6321,20 +7564,20 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="G2" s="45" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="42" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6342,20 +7585,20 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="G3" s="45" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="42" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6363,20 +7606,20 @@
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="G4" s="45" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="42" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6384,277 +7627,279 @@
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="48"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="48"/>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="48"/>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="48"/>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:11">
-      <c r="B9" s="44"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="18"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="48"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="22"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:11">
-      <c r="B10" s="44"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="18"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="48"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="22"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:11">
-      <c r="B11" s="44"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="18"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="48"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="22"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:11">
-      <c r="B12" s="44"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="18"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="48"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="22"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="2:11">
-      <c r="B13" s="44"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="18"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="48"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="22"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:11">
-      <c r="B14" s="44"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="18"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="48"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="22"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:11">
-      <c r="B15" s="44"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="18"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="48"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="22"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:11">
-      <c r="B16" s="44"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="18"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="48"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="22"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:11">
-      <c r="B17" s="44"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="18"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="48"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="22"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:11">
-      <c r="B18" s="44"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="18"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="48"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="22"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:11">
-      <c r="B19" s="44"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="18"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="48"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="22"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:11">
-      <c r="B20" s="44"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="18"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="48"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="22"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="47" t="s">
         <v>26</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="50" t="s">
         <v>28</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="47" t="s">
         <v>35</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="47" t="s">
         <v>37</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="4">
         <v>54</v>
@@ -6662,179 +7907,179 @@
       <c r="C29" s="4">
         <v>41</v>
       </c>
-      <c r="D29" s="47" t="s">
-        <v>39</v>
+      <c r="D29" s="50" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="47" t="s">
         <v>41</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="47" t="s">
         <v>43</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="47" t="s">
         <v>45</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="47" t="s">
         <v>47</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="47" t="s">
         <v>49</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="47" t="s">
         <v>51</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="47" t="s">
         <v>53</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="47" t="s">
         <v>55</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="47" t="s">
         <v>57</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="47" t="s">
         <v>59</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="47" t="s">
         <v>61</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="47" t="s">
         <v>63</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="47" t="s">
         <v>65</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="47" t="s">
         <v>67</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="47" t="s">
         <v>69</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="47" t="s">
         <v>71</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="47" t="s">
         <v>73</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6891,7 +8136,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G5" sqref="G5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -6900,140 +8145,140 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A1" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="42" t="s">
+      <c r="C1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:10">
-      <c r="A2" s="43"/>
-      <c r="B2" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="C2" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:10">
-      <c r="A3" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="42" t="s">
+      <c r="C3" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:10">
-      <c r="A4" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="42" t="s">
+      <c r="C4" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:10">
-      <c r="A5" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="42" t="s">
+      <c r="C5" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:10">
-      <c r="A6" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="42" t="s">
+      <c r="C6" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:10">
-      <c r="A7" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="42" t="s">
+      <c r="C7" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7070,63 +8315,63 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="15.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="15.7777777777778" style="39" customWidth="1"/>
+    <col min="6" max="6" width="15.7777777777778" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
-      <c r="A1" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
-      <c r="A2" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
-      <c r="A3" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6">
-      <c r="A4" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -7147,213 +8392,213 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:J9"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
     <col min="2" max="10" width="15.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="15.7777777777778" style="19" customWidth="1"/>
+    <col min="11" max="11" width="15.7777777777778" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:12">
-      <c r="A1" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="38"/>
+        <v>85</v>
+      </c>
+      <c r="L1" s="45"/>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:12">
-      <c r="A2" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="B2" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="38"/>
+        <v>125</v>
+      </c>
+      <c r="L2" s="45"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:12">
-      <c r="A3" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="B3" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="38"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:12">
-      <c r="A4" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="B4" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="38"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:12">
-      <c r="A5" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="38"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:12">
-      <c r="A6" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="B6" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="38"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:12">
-      <c r="A7" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
+      <c r="B7" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="38"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:12">
-      <c r="A8" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="30" t="s">
+      <c r="B8" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="38"/>
+      <c r="L8" s="45"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:12">
-      <c r="A9" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="B9" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="38"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:12">
-      <c r="A10" s="27"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="38"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:12">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="38"/>
+      <c r="L11" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -7393,102 +8638,102 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="15.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="15.7777777777778" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.7777777777778" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
-      <c r="A1" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="A1" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
-      <c r="A2" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25" t="s">
+      <c r="B2" s="32" t="s">
         <v>143</v>
       </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
-      <c r="A3" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6">
-      <c r="A4" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="26"/>
+      <c r="B4" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:6">
-      <c r="A5" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:6">
-      <c r="A6" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:6">
-      <c r="A7" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" ht="20" customHeight="1"/>
   </sheetData>
@@ -7510,10 +8755,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7522,50 +8767,55 @@
     <col min="2" max="2" width="15.7777777777778" style="1" customWidth="1"/>
     <col min="3" max="6" width="15.7777777777778" style="5" customWidth="1"/>
     <col min="7" max="9" width="15.7777777777778" style="1" customWidth="1"/>
+    <col min="12" max="13" width="15.7777777777778" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:11">
+    <row r="1" ht="20" customHeight="1" spans="1:13">
       <c r="A1" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:11">
+        <v>159</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+        <v>162</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H2" s="2">
         <v>4</v>
@@ -7573,26 +8823,28 @@
       <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:9">
+      <c r="J2" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H3" s="2">
         <v>3</v>
@@ -7600,19 +8852,21 @@
       <c r="I3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="2:9">
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="2:13">
       <c r="B4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
+        <v>170</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H4" s="1">
         <v>5</v>
@@ -7620,17 +8874,21 @@
       <c r="I4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="2:9">
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="2:13">
       <c r="B5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+        <v>173</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
@@ -7638,19 +8896,21 @@
       <c r="I5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="2:9">
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="2:13">
       <c r="B6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
@@ -7658,19 +8918,21 @@
       <c r="I6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="2:9">
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="2:13">
       <c r="B7" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
+        <v>179</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -7678,19 +8940,21 @@
       <c r="I7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="2:9">
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="2:13">
       <c r="B8" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
+        <v>182</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -7698,19 +8962,21 @@
       <c r="I8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="2:9">
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="2:13">
       <c r="B9" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+        <v>184</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H9" s="1">
         <v>5</v>
@@ -7718,19 +8984,21 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="2:9">
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="2:13">
       <c r="B10" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
+        <v>187</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H10" s="2">
         <v>4</v>
@@ -7738,19 +9006,21 @@
       <c r="I10" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="2:11">
+      <c r="L10" s="24"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="2:13">
       <c r="B11" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+        <v>190</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H11" s="2">
         <v>4</v>
@@ -7758,313 +9028,498 @@
       <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="1:11">
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:13">
       <c r="A12" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="J12" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="1:6">
+        <v>194</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="J12" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:13">
       <c r="A13" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="2:6">
+        <v>198</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="2:13">
       <c r="B14" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="2:13">
+      <c r="B15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="2:13">
+      <c r="B16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:13">
+      <c r="B17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="2:13">
+      <c r="B18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="2:13">
+      <c r="B19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:13">
+      <c r="B20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="3:13">
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" ht="20" customHeight="1" spans="1:13">
+      <c r="A22" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="J22" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="1:13">
+      <c r="A23" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="2:6">
-      <c r="B15" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="2:6">
-      <c r="B16" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="2:6">
-      <c r="B17" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="2:6">
-      <c r="B18" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="2:6">
-      <c r="B19" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="2:6">
-      <c r="B20" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="3:6">
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="1:11">
-      <c r="A22" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="J22" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" ht="20" customHeight="1" spans="1:6">
-      <c r="A23" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="3:6">
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="3:6">
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" ht="20" customHeight="1" spans="3:6">
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="3:6">
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" ht="20" customHeight="1" spans="3:6">
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" ht="20" customHeight="1" spans="3:6">
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" ht="20" customHeight="1" spans="3:6">
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="3:6">
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" ht="20" customHeight="1" spans="1:11">
+      <c r="B23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="L23" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" ht="20" customHeight="1" spans="2:13">
+      <c r="B24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="L24" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" ht="20" customHeight="1" spans="2:13">
+      <c r="B25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="L25" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" ht="20" customHeight="1" spans="2:13">
+      <c r="B26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="L26" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" s="25"/>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="3:13">
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="25"/>
+    </row>
+    <row r="28" ht="20" customHeight="1" spans="3:13">
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="25"/>
+    </row>
+    <row r="29" ht="20" customHeight="1" spans="3:13">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="25"/>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="3:13">
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="25"/>
+    </row>
+    <row r="31" ht="20" customHeight="1" spans="3:13">
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="25"/>
+    </row>
+    <row r="32" ht="20" customHeight="1" spans="1:13">
       <c r="A32" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="J32" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" ht="20" customHeight="1" spans="1:6">
+        <v>230</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="J32" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" s="23"/>
+      <c r="L32" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" s="25"/>
+    </row>
+    <row r="33" ht="20" customHeight="1" spans="1:13">
       <c r="A33" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" ht="20" customHeight="1" spans="3:6">
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" ht="20" customHeight="1" spans="3:6">
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" ht="20" customHeight="1" spans="3:6">
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" ht="20" customHeight="1" spans="3:6">
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" ht="20" customHeight="1" spans="3:6">
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" ht="20" customHeight="1" spans="3:6">
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" ht="20" customHeight="1" spans="3:6">
-      <c r="C40" s="12"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" ht="20" customHeight="1" spans="3:6">
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="L33" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M33" s="25"/>
+    </row>
+    <row r="34" ht="20" customHeight="1" spans="2:13">
+      <c r="B34" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="L34" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="M34" s="25"/>
+    </row>
+    <row r="35" ht="20" customHeight="1" spans="2:13">
+      <c r="B35" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="L35" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M35" s="25"/>
+    </row>
+    <row r="36" ht="20" customHeight="1" spans="2:13">
+      <c r="B36" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="L36" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M36" s="25"/>
+    </row>
+    <row r="37" ht="20" customHeight="1" spans="3:13">
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="25"/>
+    </row>
+    <row r="38" ht="20" customHeight="1" spans="3:13">
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="25"/>
+    </row>
+    <row r="39" ht="20" customHeight="1" spans="3:13">
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="25"/>
+    </row>
+    <row r="40" ht="20" customHeight="1" spans="3:13">
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="25"/>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="3:13">
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="87">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="C3:F3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="C13:F13"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="C14:F14"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="C15:F15"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="C16:F16"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="C18:F18"/>
+    <mergeCell ref="L18:M18"/>
     <mergeCell ref="C19:F19"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="C20:F20"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="C21:F21"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
     <mergeCell ref="C23:F23"/>
+    <mergeCell ref="L23:M23"/>
     <mergeCell ref="C24:F24"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="C25:F25"/>
+    <mergeCell ref="L25:M25"/>
     <mergeCell ref="C26:F26"/>
+    <mergeCell ref="L26:M26"/>
     <mergeCell ref="C27:F27"/>
+    <mergeCell ref="L27:M27"/>
     <mergeCell ref="C28:F28"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="C29:F29"/>
+    <mergeCell ref="L29:M29"/>
     <mergeCell ref="C30:F30"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="C31:F31"/>
+    <mergeCell ref="L31:M31"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
     <mergeCell ref="C33:F33"/>
+    <mergeCell ref="L33:M33"/>
     <mergeCell ref="C34:F34"/>
+    <mergeCell ref="L34:M34"/>
     <mergeCell ref="C35:F35"/>
+    <mergeCell ref="L35:M35"/>
     <mergeCell ref="C36:F36"/>
+    <mergeCell ref="L36:M36"/>
     <mergeCell ref="C37:F37"/>
+    <mergeCell ref="L37:M37"/>
     <mergeCell ref="C38:F38"/>
+    <mergeCell ref="L38:M38"/>
     <mergeCell ref="C39:F39"/>
+    <mergeCell ref="L39:M39"/>
     <mergeCell ref="C40:F40"/>
+    <mergeCell ref="L40:M40"/>
     <mergeCell ref="C41:F41"/>
+    <mergeCell ref="L41:M41"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L26" r:id="rId1" display="https://baike.baidu.com/item/%E9%BB%91%E7%86%8A/84619?fr=ge_ala"/>
+    <hyperlink ref="L25" r:id="rId2" display="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E7%A7%8B%E6%B2%99%E9%B8%AD/315346?fr=ge_ala"/>
+    <hyperlink ref="L24" r:id="rId3" display="https://baike.baidu.com/item/%E9%BB%84%E5%96%89%E8%B2%82/2803264?fr=ge_ala"/>
+    <hyperlink ref="L23" r:id="rId4" display="https://baike.baidu.com/item/%E9%BB%91%E5%8F%B6%E7%8C%B4/366681?fr=ge_ala"/>
+    <hyperlink ref="L22" r:id="rId5" display="https://baike.baidu.com/item/%E6%9E%97%E9%BA%9D/1663648?fr=ge_ala"/>
+    <hyperlink ref="L32" r:id="rId6" display="https://baike.baidu.com/item/%E8%8D%B7%E5%8F%B6%E9%93%81%E7%BA%BF%E8%95%A8/797950?fr=ge_ala"/>
+    <hyperlink ref="L33" r:id="rId7" display="https://baike.baidu.com/item/%E5%B4%96%E6%9F%8F/2481806?fr=ge_ala"/>
+    <hyperlink ref="L34" r:id="rId8" display="https://baike.baidu.com/item/%E5%85%AB%E8%A7%92%E8%8E%B2/546626?fr=ge_ala"/>
+    <hyperlink ref="L35" r:id="rId9" display="https://baike.baidu.com/item/%E7%8B%AC%E8%8A%B1%E5%85%B0/8505163?fr=ge_ala"/>
+    <hyperlink ref="L36" r:id="rId10" display="https://baike.baidu.com/item/%E7%BB%86%E5%8F%B6%E6%A5%A0/1629798?fr=ge_ala"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -8076,8 +9531,8 @@
   <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -8087,121 +9542,121 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1"/>
@@ -8211,12 +9666,12 @@
     <row r="12" ht="20" customHeight="1"/>
     <row r="13" ht="20" customHeight="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1"/>

--- a/SetDocument/设定文档.xlsx
+++ b/SetDocument/设定文档.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设定" sheetId="7" r:id="rId1"/>
-    <sheet name="主要人物" sheetId="1" r:id="rId2"/>
+    <sheet name="NPC" sheetId="1" r:id="rId2"/>
     <sheet name="道具" sheetId="5" r:id="rId3"/>
     <sheet name="场景" sheetId="4" r:id="rId4"/>
     <sheet name="手机" sheetId="6" r:id="rId5"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="295">
   <si>
     <t>设定</t>
   </si>
@@ -364,6 +364,42 @@
   </si>
   <si>
     <t>回答对五次群众的提问后，便衣警察会向你搭话</t>
+  </si>
+  <si>
+    <t>书店老板 BookstoreBoss</t>
+  </si>
+  <si>
+    <t>书店老板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图书馆管理员 Librarian </t>
+  </si>
+  <si>
+    <t>图书馆管理员</t>
+  </si>
+  <si>
+    <t>酒保 Bartender</t>
+  </si>
+  <si>
+    <t>酒保</t>
+  </si>
+  <si>
+    <t>骑士 Knight</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>公主 Princess</t>
+  </si>
+  <si>
+    <t>恶龙 Dragon</t>
+  </si>
+  <si>
+    <t>女教师 Teacher Liu</t>
+  </si>
+  <si>
+    <t>教师</t>
   </si>
   <si>
     <r>
@@ -6979,7 +7015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7054,12 +7090,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7530,7 +7560,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:K8"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7546,8 +7576,8 @@
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="22"/>
       <c r="G1" s="7" t="s">
         <v>2</v>
@@ -7691,8 +7721,8 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:11">
       <c r="B9" s="23"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="22"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
@@ -7702,8 +7732,8 @@
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:11">
       <c r="B10" s="23"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="22"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
@@ -7713,8 +7743,8 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:11">
       <c r="B11" s="23"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="22"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
@@ -7724,8 +7754,8 @@
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:11">
       <c r="B12" s="23"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="22"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
@@ -7735,8 +7765,8 @@
     </row>
     <row r="13" ht="20" customHeight="1" spans="2:11">
       <c r="B13" s="23"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="22"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
@@ -7746,8 +7776,8 @@
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:11">
       <c r="B14" s="23"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="22"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
@@ -7757,8 +7787,8 @@
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:11">
       <c r="B15" s="23"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="22"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
@@ -7768,8 +7798,8 @@
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:11">
       <c r="B16" s="23"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="22"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
@@ -7779,8 +7809,8 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:11">
       <c r="B17" s="23"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="22"/>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
@@ -7790,8 +7820,8 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:11">
       <c r="B18" s="23"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="22"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
@@ -7801,8 +7831,8 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:11">
       <c r="B19" s="23"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="22"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
@@ -7812,8 +7842,8 @@
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:11">
       <c r="B20" s="23"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="22"/>
       <c r="G20" s="7"/>
       <c r="H20" s="8"/>
@@ -7831,7 +7861,7 @@
       <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="48" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7845,7 +7875,7 @@
       <c r="C22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="48" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7853,7 +7883,7 @@
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="48" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7861,7 +7891,7 @@
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="48" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7869,7 +7899,7 @@
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="48" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7877,7 +7907,7 @@
       <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="48" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7885,7 +7915,7 @@
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="48" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7893,7 +7923,7 @@
       <c r="A28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="48" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7907,7 +7937,7 @@
       <c r="C29" s="4">
         <v>41</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7915,7 +7945,7 @@
       <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="48" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7923,7 +7953,7 @@
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="48" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7931,7 +7961,7 @@
       <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="48" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7939,7 +7969,7 @@
       <c r="A33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="48" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7947,7 +7977,7 @@
       <c r="A34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="48" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7955,7 +7985,7 @@
       <c r="A35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="48" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7963,7 +7993,7 @@
       <c r="A36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="48" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7971,7 +8001,7 @@
       <c r="A37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="48" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7979,7 +8009,7 @@
       <c r="A38" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="48" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7987,7 +8017,7 @@
       <c r="A39" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="48" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7995,7 +8025,7 @@
       <c r="A40" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="48" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8003,7 +8033,7 @@
       <c r="A41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="48" t="s">
         <v>64</v>
       </c>
     </row>
@@ -8011,7 +8041,7 @@
       <c r="A42" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="48" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8019,7 +8049,7 @@
       <c r="A43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="48" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8027,7 +8057,7 @@
       <c r="A44" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="48" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8035,7 +8065,7 @@
       <c r="A45" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="48" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8043,7 +8073,7 @@
       <c r="A46" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="48" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8133,30 +8163,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="10" width="15.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
@@ -8165,34 +8195,34 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:10">
-      <c r="A2" s="49"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:10">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="1" t="s">
         <v>91</v>
       </c>
@@ -8201,18 +8231,18 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:10">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="1" t="s">
         <v>95</v>
       </c>
@@ -8221,18 +8251,18 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:10">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="1" t="s">
         <v>99</v>
       </c>
@@ -8241,18 +8271,18 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:10">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="1" t="s">
         <v>103</v>
       </c>
@@ -8261,18 +8291,18 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:10">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="1" t="s">
         <v>107</v>
       </c>
@@ -8280,8 +8310,180 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
+    <row r="9" ht="20" customHeight="1" spans="1:10">
+      <c r="A9" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:10">
+      <c r="A10" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:10">
+      <c r="A11" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:10">
+      <c r="A12" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:10">
+      <c r="A13" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:10">
+      <c r="A14" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:10">
+      <c r="A15" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:10">
+      <c r="A16" s="47"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:10">
+      <c r="A17" s="47"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="1:10">
+      <c r="A18" s="47"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="1:10">
+      <c r="A19" s="47"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="1:10">
+      <c r="A20" s="47"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="38">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="C2:F2"/>
@@ -8296,6 +8498,30 @@
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:J7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8315,63 +8541,63 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="15.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="15.7777777777778" style="46" customWidth="1"/>
+    <col min="6" max="6" width="15.7777777777778" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
-      <c r="A1" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="A1" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
-      <c r="A2" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="A2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
-      <c r="A3" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="A3" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6">
-      <c r="A4" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="A4" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -8399,22 +8625,22 @@
   <cols>
     <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
     <col min="2" max="10" width="15.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="15.7777777777778" style="26" customWidth="1"/>
+    <col min="11" max="11" width="15.7777777777778" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:12">
-      <c r="A1" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -8422,183 +8648,183 @@
       <c r="K1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="45"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:12">
-      <c r="A2" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="A2" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" s="45"/>
+        <v>137</v>
+      </c>
+      <c r="L2" s="43"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:12">
-      <c r="A3" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="A3" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="45"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:12">
-      <c r="A4" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="A4" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="45"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:12">
-      <c r="A5" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="A5" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="45"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:12">
-      <c r="A6" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="A6" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="45"/>
+      <c r="L6" s="43"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:12">
-      <c r="A7" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
+      <c r="L7" s="43"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:12">
-      <c r="A8" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="A8" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="45"/>
+      <c r="L8" s="43"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:12">
-      <c r="A9" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="A9" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="45"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:12">
-      <c r="A10" s="35"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="45"/>
+      <c r="L10" s="43"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:12">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="45"/>
+      <c r="L11" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -8644,96 +8870,96 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="15.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="15.7777777777778" style="26" customWidth="1"/>
+    <col min="6" max="6" width="15.7777777777778" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
-      <c r="A1" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="A1" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
-      <c r="A2" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33" t="s">
-        <v>144</v>
+      <c r="A2" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
-      <c r="A3" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
+      <c r="A3" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6">
-      <c r="A4" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="34"/>
+      <c r="A4" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:6">
-      <c r="A5" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="34"/>
+      <c r="A5" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:6">
-      <c r="A6" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="34"/>
+      <c r="A6" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:6">
-      <c r="A7" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="37"/>
+      <c r="A7" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" ht="20" customHeight="1"/>
   </sheetData>
@@ -8757,7 +8983,7 @@
   <sheetPr/>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="L36" sqref="L36:M36"/>
     </sheetView>
   </sheetViews>
@@ -8772,50 +8998,50 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:13">
       <c r="A1" s="4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>85</v>
       </c>
       <c r="K1" s="23"/>
-      <c r="L1" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" s="25"/>
+      <c r="L1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H2" s="2">
         <v>4</v>
@@ -8824,27 +9050,27 @@
         <v>1</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="H3" s="2">
         <v>3</v>
@@ -8852,21 +9078,21 @@
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:13">
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="H4" s="1">
         <v>5</v>
@@ -8874,21 +9100,21 @@
       <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:13">
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
       <c r="G5" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
@@ -8896,21 +9122,21 @@
       <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:13">
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
       <c r="G6" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
@@ -8918,21 +9144,21 @@
       <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:13">
       <c r="B7" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -8940,21 +9166,21 @@
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:13">
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -8962,21 +9188,21 @@
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:13">
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
       <c r="G9" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="H9" s="1">
         <v>5</v>
@@ -8984,21 +9210,21 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:13">
       <c r="B10" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H10" s="2">
         <v>4</v>
@@ -9006,21 +9232,21 @@
       <c r="I10" s="2">
         <v>4</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:13">
       <c r="B11" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
       <c r="G11" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="H11" s="2">
         <v>4</v>
@@ -9028,395 +9254,395 @@
       <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:13">
       <c r="A12" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="18"/>
       <c r="J12" s="22" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:13">
       <c r="A13" s="4" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:13">
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:13">
       <c r="B15" s="1" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:13">
       <c r="B16" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:13">
       <c r="B17" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:13">
       <c r="B18" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:13">
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:13">
       <c r="B20" s="1" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="3:13">
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:13">
       <c r="A22" s="4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
-      <c r="J22" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="M22" s="25"/>
+      <c r="J22" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:13">
       <c r="A23" s="4" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
-      <c r="L23" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M23" s="25"/>
+      <c r="L23" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="2:13">
       <c r="B24" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="18"/>
-      <c r="L24" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M24" s="25"/>
+      <c r="L24" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="2:13">
       <c r="B25" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
-      <c r="L25" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="M25" s="25"/>
+      <c r="L25" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="2:13">
       <c r="B26" s="1" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18"/>
-      <c r="L26" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="M26" s="25"/>
+      <c r="L26" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="3:13">
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="18"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="25"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="3:13">
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="18"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="25"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="3:13">
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="18"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="25"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="3:13">
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="25"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="3:13">
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="18"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="25"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:13">
       <c r="A32" s="4" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="18"/>
       <c r="J32" s="22" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="K32" s="23"/>
-      <c r="L32" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="M32" s="25"/>
+      <c r="L32" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:13">
       <c r="A33" s="4" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="L33" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="M33" s="25"/>
+      <c r="L33" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="2:13">
       <c r="B34" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="L34" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="M34" s="25"/>
+      <c r="L34" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" ht="20" customHeight="1" spans="2:13">
       <c r="B35" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="18"/>
-      <c r="L35" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="M35" s="25"/>
+      <c r="L35" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" ht="20" customHeight="1" spans="2:13">
       <c r="B36" s="1" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="18"/>
-      <c r="L36" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="M36" s="25"/>
+      <c r="L36" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="3:13">
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="18"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="25"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="3:13">
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="18"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="25"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" ht="20" customHeight="1" spans="3:13">
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="18"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="25"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" ht="20" customHeight="1" spans="3:13">
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="18"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="25"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" ht="20" customHeight="1" spans="3:13">
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="18"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="25"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -9532,7 +9758,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -9542,121 +9768,121 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1"/>
@@ -9666,12 +9892,12 @@
     <row r="12" ht="20" customHeight="1"/>
     <row r="13" ht="20" customHeight="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1"/>

--- a/SetDocument/设定文档.xlsx
+++ b/SetDocument/设定文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设定" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="299">
   <si>
     <t>设定</t>
   </si>
@@ -372,18 +372,27 @@
     <t>书店老板</t>
   </si>
   <si>
-    <t xml:space="preserve">图书馆管理员 Librarian </t>
+    <t>三十多岁的书店小老板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图书馆管理员 珙桐 Librarian </t>
   </si>
   <si>
     <t>图书馆管理员</t>
   </si>
   <si>
+    <t>三十岁左右的女白领</t>
+  </si>
+  <si>
     <t>酒保 Bartender</t>
   </si>
   <si>
     <t>酒保</t>
   </si>
   <si>
+    <t>二十岁左右的热血青年</t>
+  </si>
+  <si>
     <t>骑士 Knight</t>
   </si>
   <si>
@@ -400,6 +409,9 @@
   </si>
   <si>
     <t>教师</t>
+  </si>
+  <si>
+    <t>接近三十岁的年轻教师，认真负责类型</t>
   </si>
   <si>
     <r>
@@ -8165,8 +8177,8 @@
   <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8310,6 +8322,16 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+    </row>
     <row r="9" ht="20" customHeight="1" spans="1:10">
       <c r="A9" s="47" t="s">
         <v>108</v>
@@ -8317,7 +8339,9 @@
       <c r="B9" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="30" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -8328,12 +8352,14 @@
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:10">
       <c r="A10" s="47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="30"/>
+        <v>112</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -8344,12 +8370,14 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:10">
       <c r="A11" s="47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="30"/>
+        <v>115</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -8360,10 +8388,10 @@
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:10">
       <c r="A12" s="47" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -8376,10 +8404,10 @@
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:10">
       <c r="A13" s="47" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -8392,10 +8420,10 @@
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:10">
       <c r="A14" s="47" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -8408,12 +8436,14 @@
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:10">
       <c r="A15" s="47" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="30"/>
+        <v>122</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>123</v>
+      </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -8483,7 +8513,7 @@
       <c r="J20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="40">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="C2:F2"/>
@@ -8498,6 +8528,8 @@
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:J7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="C10:F10"/>
@@ -8546,58 +8578,58 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
       <c r="A1" s="27" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
       <c r="A2" s="29" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
       <c r="F2" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
       <c r="F3" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="F4" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -8618,7 +8650,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8630,17 +8662,17 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:12">
       <c r="A1" s="27" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -8652,10 +8684,10 @@
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:12">
       <c r="A2" s="29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -8666,16 +8698,16 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L2" s="43"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:12">
       <c r="A3" s="29" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -8690,10 +8722,10 @@
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:12">
       <c r="A4" s="29" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -8708,10 +8740,10 @@
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:12">
       <c r="A5" s="29" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -8726,10 +8758,10 @@
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:12">
       <c r="A6" s="24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -8744,10 +8776,10 @@
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:12">
       <c r="A7" s="29" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -8762,17 +8794,17 @@
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:12">
       <c r="A8" s="29" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -8782,10 +8814,10 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:12">
       <c r="A9" s="33" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -8875,10 +8907,10 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
       <c r="A1" s="27" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -8889,24 +8921,24 @@
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
       <c r="A2" s="29" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="31" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -8915,10 +8947,10 @@
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6">
       <c r="A4" s="33" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -8927,10 +8959,10 @@
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:6">
       <c r="A5" s="29" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -8939,10 +8971,10 @@
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -8951,10 +8983,10 @@
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -8983,8 +9015,8 @@
   <sheetPr/>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36:M36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8998,50 +9030,50 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:13">
       <c r="A1" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>85</v>
       </c>
       <c r="K1" s="23"/>
       <c r="L1" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M1" s="9"/>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H2" s="2">
         <v>4</v>
@@ -9050,7 +9082,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K2" s="23"/>
       <c r="L2" s="7"/>
@@ -9058,19 +9090,19 @@
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H3" s="2">
         <v>3</v>
@@ -9083,16 +9115,16 @@
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:13">
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H4" s="1">
         <v>5</v>
@@ -9105,16 +9137,16 @@
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:13">
       <c r="B5" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
       <c r="G5" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
@@ -9127,16 +9159,16 @@
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:13">
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
       <c r="G6" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
@@ -9149,16 +9181,16 @@
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:13">
       <c r="B7" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -9171,16 +9203,16 @@
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:13">
       <c r="B8" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -9193,16 +9225,16 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:13">
       <c r="B9" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
       <c r="G9" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H9" s="1">
         <v>5</v>
@@ -9215,16 +9247,16 @@
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:13">
       <c r="B10" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="2">
         <v>4</v>
@@ -9237,16 +9269,16 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:13">
       <c r="B11" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
       <c r="G11" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H11" s="2">
         <v>4</v>
@@ -9261,19 +9293,19 @@
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:13">
       <c r="A12" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="18"/>
       <c r="J12" s="22" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="7"/>
@@ -9281,13 +9313,13 @@
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:13">
       <c r="A13" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -9297,10 +9329,10 @@
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:13">
       <c r="B14" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -9310,10 +9342,10 @@
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:13">
       <c r="B15" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -9323,10 +9355,10 @@
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:13">
       <c r="B16" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -9336,10 +9368,10 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:13">
       <c r="B17" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -9349,10 +9381,10 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:13">
       <c r="B18" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -9362,10 +9394,10 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:13">
       <c r="B19" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -9375,10 +9407,10 @@
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:13">
       <c r="B20" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -9396,86 +9428,86 @@
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:13">
       <c r="A22" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="J22" s="25" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K22" s="25"/>
       <c r="L22" s="26" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M22" s="9"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:13">
       <c r="A23" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
       <c r="L23" s="26" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M23" s="9"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="2:13">
       <c r="B24" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="18"/>
       <c r="L24" s="26" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M24" s="9"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="2:13">
       <c r="B25" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
       <c r="L25" s="26" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M25" s="9"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="2:13">
       <c r="B26" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18"/>
       <c r="L26" s="26" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M26" s="9"/>
     </row>
@@ -9521,86 +9553,86 @@
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:13">
       <c r="A32" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="18"/>
       <c r="J32" s="22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K32" s="23"/>
       <c r="L32" s="26" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M32" s="9"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:13">
       <c r="A33" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
       <c r="L33" s="26" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M33" s="9"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="2:13">
       <c r="B34" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
       <c r="L34" s="26" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M34" s="9"/>
     </row>
     <row r="35" ht="20" customHeight="1" spans="2:13">
       <c r="B35" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="18"/>
       <c r="L35" s="26" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M35" s="9"/>
     </row>
     <row r="36" ht="20" customHeight="1" spans="2:13">
       <c r="B36" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="18"/>
       <c r="L36" s="26" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M36" s="9"/>
     </row>
@@ -9758,7 +9790,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -9768,121 +9800,121 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1"/>
@@ -9892,12 +9924,12 @@
     <row r="12" ht="20" customHeight="1"/>
     <row r="13" ht="20" customHeight="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1"/>

--- a/SetDocument/设定文档.xlsx
+++ b/SetDocument/设定文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设定" sheetId="7" r:id="rId1"/>
@@ -9015,8 +9015,8 @@
   <sheetPr/>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9789,7 +9789,7 @@
   <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/SetDocument/设定文档.xlsx
+++ b/SetDocument/设定文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设定" sheetId="7" r:id="rId1"/>
@@ -7571,8 +7571,8 @@
   <sheetPr/>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -9016,7 +9016,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9789,7 +9789,7 @@
   <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
